--- a/assets/qt_schedule.xlsx
+++ b/assets/qt_schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayer\android_apps\daily_qt_hl\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2F05AB-46FD-444D-871F-209AC77EC983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E620C92-5485-4DFB-B8EE-FAC407F111C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-106" yWindow="-106" windowWidth="22875" windowHeight="12358" xr2:uid="{03EA6E69-C154-4164-AD29-32C70FF0EC51}"/>
   </bookViews>
@@ -2023,13 +2023,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C5AE5-7EBE-4A4A-BD63-5A68899D1B94}">
   <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
     <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>

--- a/assets/qt_schedule.xlsx
+++ b/assets/qt_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayer\android_apps\daily_qt_hl\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E620C92-5485-4DFB-B8EE-FAC407F111C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B07E0-95F8-4A72-B89B-E3674F886753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-106" yWindow="-106" windowWidth="22875" windowHeight="12358" xr2:uid="{03EA6E69-C154-4164-AD29-32C70FF0EC51}"/>
+    <workbookView xWindow="1133" yWindow="1133" windowWidth="16997" windowHeight="8805" xr2:uid="{03EA6E69-C154-4164-AD29-32C70FF0EC51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1665,6 +1665,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1700,13 +1703,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2023,13 +2027,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C5AE5-7EBE-4A4A-BD63-5A68899D1B94}">
   <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
@@ -2037,7 +2041,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2054,7 +2058,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>45292</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2071,7 +2075,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>45293</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2088,7 +2092,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>45294</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2105,7 +2109,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>45295</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2122,7 +2126,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>45296</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2139,7 +2143,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>45297</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2156,7 +2160,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>45298</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2173,7 +2177,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>45299</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2190,7 +2194,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>45300</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2207,7 +2211,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>45301</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2224,7 +2228,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>45302</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2241,7 +2245,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>45303</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2258,7 +2262,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>45304</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2275,7 +2279,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>45305</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2292,7 +2296,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>45306</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2309,7 +2313,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>45307</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2326,7 +2330,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>45308</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2343,7 +2347,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>45309</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2360,7 +2364,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>45310</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2377,7 +2381,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>45311</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2394,7 +2398,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>45312</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2411,7 +2415,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>45313</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2428,7 +2432,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>45314</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -2445,7 +2449,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>45315</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2462,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>45316</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2479,7 +2483,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <v>45317</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2496,7 +2500,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>45318</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2513,7 +2517,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>45319</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2530,7 +2534,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>45320</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2547,7 +2551,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>45321</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2564,7 +2568,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>45322</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2581,7 +2585,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>45323</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2598,7 +2602,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>45324</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2615,7 +2619,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>45325</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2632,7 +2636,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>45326</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2649,7 +2653,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>45327</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2666,7 +2670,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <v>45328</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2683,7 +2687,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="4">
         <v>45329</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2700,7 +2704,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <v>45330</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2717,7 +2721,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="4">
         <v>45331</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2734,7 +2738,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="4">
         <v>45332</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2751,7 +2755,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="4">
         <v>45333</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2768,7 +2772,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="4">
         <v>45334</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2785,7 +2789,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="4">
         <v>45335</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2802,7 +2806,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="4">
         <v>45336</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2819,7 +2823,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="4">
         <v>45337</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2836,7 +2840,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="4">
         <v>45338</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -2853,7 +2857,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="4">
         <v>45339</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2870,7 +2874,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="4">
         <v>45340</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2887,7 +2891,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="4">
         <v>45341</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2904,7 +2908,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="4">
         <v>45342</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2921,7 +2925,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="4">
         <v>45343</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2938,7 +2942,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="4">
         <v>45344</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2955,7 +2959,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="4">
         <v>45345</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2972,7 +2976,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="4">
         <v>45346</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2989,7 +2993,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="4">
         <v>45347</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -3006,7 +3010,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="4">
         <v>45348</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -3023,7 +3027,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="4">
         <v>45349</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3040,7 +3044,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="4">
         <v>45350</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -3057,7 +3061,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="4">
         <v>45351</v>
       </c>
       <c r="B61" t="s">
@@ -3074,7 +3078,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="A62" s="4">
         <v>45352</v>
       </c>
       <c r="B62" t="s">
@@ -3091,7 +3095,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="A63" s="4">
         <v>45353</v>
       </c>
       <c r="B63" t="s">
@@ -3108,7 +3112,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="A64" s="4">
         <v>45354</v>
       </c>
       <c r="B64" t="s">
@@ -3125,7 +3129,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="A65" s="4">
         <v>45355</v>
       </c>
       <c r="B65" t="s">
@@ -3142,7 +3146,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="A66" s="4">
         <v>45356</v>
       </c>
       <c r="B66" t="s">
@@ -3159,7 +3163,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="A67" s="4">
         <v>45357</v>
       </c>
       <c r="B67" t="s">
@@ -3176,7 +3180,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="A68" s="4">
         <v>45358</v>
       </c>
       <c r="B68" t="s">
@@ -3193,7 +3197,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="A69" s="4">
         <v>45359</v>
       </c>
       <c r="B69" t="s">
@@ -3210,7 +3214,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="A70" s="4">
         <v>45360</v>
       </c>
       <c r="B70" t="s">
@@ -3227,7 +3231,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="A71" s="4">
         <v>45361</v>
       </c>
       <c r="B71" t="s">
@@ -3244,7 +3248,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="A72" s="4">
         <v>45362</v>
       </c>
       <c r="B72" t="s">
@@ -3261,7 +3265,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="4">
         <v>45363</v>
       </c>
       <c r="B73" t="s">
@@ -3278,7 +3282,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="4">
         <v>45364</v>
       </c>
       <c r="B74" t="s">
@@ -3295,7 +3299,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="A75" s="4">
         <v>45365</v>
       </c>
       <c r="B75" t="s">
@@ -3312,7 +3316,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="A76" s="4">
         <v>45366</v>
       </c>
       <c r="B76" t="s">
@@ -3329,7 +3333,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="A77" s="4">
         <v>45367</v>
       </c>
       <c r="B77" t="s">
@@ -3346,7 +3350,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="A78" s="4">
         <v>45368</v>
       </c>
       <c r="B78" t="s">
@@ -3363,7 +3367,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+      <c r="A79" s="4">
         <v>45369</v>
       </c>
       <c r="B79" t="s">
@@ -3380,7 +3384,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="A80" s="4">
         <v>45370</v>
       </c>
       <c r="B80" t="s">
@@ -3397,7 +3401,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="A81" s="4">
         <v>45371</v>
       </c>
       <c r="B81" t="s">
@@ -3414,7 +3418,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+      <c r="A82" s="4">
         <v>45372</v>
       </c>
       <c r="B82" t="s">
@@ -3431,7 +3435,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+      <c r="A83" s="4">
         <v>45373</v>
       </c>
       <c r="B83" t="s">
@@ -3448,7 +3452,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+      <c r="A84" s="4">
         <v>45374</v>
       </c>
       <c r="B84" t="s">
@@ -3465,7 +3469,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+      <c r="A85" s="4">
         <v>45375</v>
       </c>
       <c r="B85" t="s">
@@ -3482,7 +3486,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="A86" s="4">
         <v>45376</v>
       </c>
       <c r="B86" t="s">
@@ -3499,7 +3503,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+      <c r="A87" s="4">
         <v>45377</v>
       </c>
       <c r="B87" t="s">
@@ -3516,7 +3520,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+      <c r="A88" s="4">
         <v>45378</v>
       </c>
       <c r="B88" t="s">
@@ -3533,7 +3537,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+      <c r="A89" s="4">
         <v>45379</v>
       </c>
       <c r="B89" t="s">
@@ -3550,7 +3554,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+      <c r="A90" s="4">
         <v>45380</v>
       </c>
       <c r="B90" t="s">
@@ -3567,7 +3571,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+      <c r="A91" s="4">
         <v>45381</v>
       </c>
       <c r="B91" t="s">
@@ -3584,7 +3588,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+      <c r="A92" s="4">
         <v>45382</v>
       </c>
       <c r="B92" t="s">
@@ -3601,7 +3605,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="A93" s="4">
         <v>45383</v>
       </c>
       <c r="B93" t="s">
@@ -3618,7 +3622,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+      <c r="A94" s="4">
         <v>45384</v>
       </c>
       <c r="B94" t="s">
@@ -3635,7 +3639,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+      <c r="A95" s="4">
         <v>45385</v>
       </c>
       <c r="B95" t="s">
@@ -3652,7 +3656,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+      <c r="A96" s="4">
         <v>45386</v>
       </c>
       <c r="B96" t="s">
@@ -3669,7 +3673,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+      <c r="A97" s="4">
         <v>45387</v>
       </c>
       <c r="B97" t="s">
@@ -3686,7 +3690,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+      <c r="A98" s="4">
         <v>45388</v>
       </c>
       <c r="B98" t="s">
@@ -3703,7 +3707,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+      <c r="A99" s="4">
         <v>45389</v>
       </c>
       <c r="B99" t="s">
@@ -3720,7 +3724,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+      <c r="A100" s="4">
         <v>45390</v>
       </c>
       <c r="B100" t="s">
@@ -3737,7 +3741,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+      <c r="A101" s="4">
         <v>45391</v>
       </c>
       <c r="B101" t="s">
@@ -3754,7 +3758,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+      <c r="A102" s="4">
         <v>45392</v>
       </c>
       <c r="B102" t="s">
@@ -3771,7 +3775,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+      <c r="A103" s="4">
         <v>45393</v>
       </c>
       <c r="B103" t="s">
@@ -3788,7 +3792,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="A104" s="4">
         <v>45394</v>
       </c>
       <c r="B104" t="s">
@@ -3805,7 +3809,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+      <c r="A105" s="4">
         <v>45395</v>
       </c>
       <c r="B105" t="s">
@@ -3822,7 +3826,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="A106" s="4">
         <v>45396</v>
       </c>
       <c r="B106" t="s">
@@ -3839,7 +3843,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="A107" s="4">
         <v>45397</v>
       </c>
       <c r="B107" t="s">
@@ -3856,7 +3860,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="A108" s="4">
         <v>45398</v>
       </c>
       <c r="B108" t="s">
@@ -3873,7 +3877,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="A109" s="4">
         <v>45399</v>
       </c>
       <c r="B109" t="s">
@@ -3890,7 +3894,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="A110" s="4">
         <v>45400</v>
       </c>
       <c r="B110" t="s">
@@ -3907,7 +3911,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="A111" s="4">
         <v>45401</v>
       </c>
       <c r="B111" t="s">
@@ -3924,7 +3928,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="A112" s="4">
         <v>45402</v>
       </c>
       <c r="B112" t="s">
@@ -3941,7 +3945,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="A113" s="4">
         <v>45403</v>
       </c>
       <c r="B113" t="s">
@@ -3958,7 +3962,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="A114" s="4">
         <v>45404</v>
       </c>
       <c r="B114" t="s">
@@ -3975,7 +3979,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+      <c r="A115" s="4">
         <v>45405</v>
       </c>
       <c r="B115" t="s">
@@ -3992,7 +3996,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="A116" s="4">
         <v>45406</v>
       </c>
       <c r="B116" t="s">
@@ -4009,7 +4013,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+      <c r="A117" s="4">
         <v>45407</v>
       </c>
       <c r="B117" t="s">
@@ -4026,7 +4030,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+      <c r="A118" s="4">
         <v>45408</v>
       </c>
       <c r="B118" t="s">
@@ -4043,7 +4047,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+      <c r="A119" s="4">
         <v>45409</v>
       </c>
       <c r="B119" t="s">
@@ -4060,7 +4064,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+      <c r="A120" s="4">
         <v>45410</v>
       </c>
       <c r="B120" t="s">
@@ -4077,7 +4081,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+      <c r="A121" s="4">
         <v>45411</v>
       </c>
       <c r="B121" t="s">
@@ -4094,7 +4098,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+      <c r="A122" s="4">
         <v>45412</v>
       </c>
       <c r="B122" t="s">
@@ -4109,7 +4113,7 @@
       <c r="E122" s="2"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+      <c r="A123" s="4">
         <v>45413</v>
       </c>
       <c r="B123" t="s">
@@ -4126,7 +4130,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+      <c r="A124" s="4">
         <v>45414</v>
       </c>
       <c r="B124" t="s">
@@ -4143,7 +4147,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+      <c r="A125" s="4">
         <v>45415</v>
       </c>
       <c r="B125" t="s">
@@ -4160,7 +4164,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+      <c r="A126" s="4">
         <v>45416</v>
       </c>
       <c r="B126" t="s">
@@ -4177,7 +4181,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+      <c r="A127" s="4">
         <v>45417</v>
       </c>
       <c r="B127" t="s">
@@ -4194,7 +4198,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+      <c r="A128" s="4">
         <v>45418</v>
       </c>
       <c r="B128" t="s">
@@ -4211,7 +4215,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+      <c r="A129" s="4">
         <v>45419</v>
       </c>
       <c r="B129" t="s">
@@ -4228,7 +4232,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+      <c r="A130" s="4">
         <v>45420</v>
       </c>
       <c r="B130" t="s">
@@ -4245,7 +4249,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+      <c r="A131" s="4">
         <v>45421</v>
       </c>
       <c r="B131" t="s">
@@ -4262,7 +4266,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+      <c r="A132" s="4">
         <v>45422</v>
       </c>
       <c r="B132" t="s">
@@ -4279,7 +4283,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+      <c r="A133" s="4">
         <v>45423</v>
       </c>
       <c r="B133" t="s">
@@ -4296,7 +4300,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="A134" s="4">
         <v>45424</v>
       </c>
       <c r="B134" t="s">
@@ -4313,7 +4317,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+      <c r="A135" s="4">
         <v>45425</v>
       </c>
       <c r="B135" t="s">
@@ -4330,7 +4334,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+      <c r="A136" s="4">
         <v>45426</v>
       </c>
       <c r="B136" t="s">
@@ -4347,7 +4351,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+      <c r="A137" s="4">
         <v>45427</v>
       </c>
       <c r="B137" t="s">
@@ -4364,7 +4368,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+      <c r="A138" s="4">
         <v>45428</v>
       </c>
       <c r="B138" t="s">
@@ -4381,7 +4385,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+      <c r="A139" s="4">
         <v>45429</v>
       </c>
       <c r="B139" t="s">
@@ -4395,7 +4399,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+      <c r="A140" s="4">
         <v>45430</v>
       </c>
       <c r="B140" t="s">
@@ -4409,7 +4413,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="A141" s="4">
         <v>45431</v>
       </c>
       <c r="B141" t="s">
@@ -4423,7 +4427,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+      <c r="A142" s="4">
         <v>45432</v>
       </c>
       <c r="B142" t="s">
@@ -4437,7 +4441,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+      <c r="A143" s="4">
         <v>45433</v>
       </c>
       <c r="B143" t="s">
@@ -4451,7 +4455,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+      <c r="A144" s="4">
         <v>45434</v>
       </c>
       <c r="B144" t="s">
@@ -4465,7 +4469,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+      <c r="A145" s="4">
         <v>45435</v>
       </c>
       <c r="B145" t="s">
@@ -4479,7 +4483,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+      <c r="A146" s="4">
         <v>45436</v>
       </c>
       <c r="B146" t="s">
@@ -4493,7 +4497,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
+      <c r="A147" s="4">
         <v>45437</v>
       </c>
       <c r="B147" t="s">
@@ -4507,7 +4511,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
+      <c r="A148" s="4">
         <v>45438</v>
       </c>
       <c r="B148" t="s">
@@ -4521,7 +4525,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
+      <c r="A149" s="4">
         <v>45439</v>
       </c>
       <c r="B149" t="s">
@@ -4535,7 +4539,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
+      <c r="A150" s="4">
         <v>45440</v>
       </c>
       <c r="B150" t="s">
@@ -4549,7 +4553,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
+      <c r="A151" s="4">
         <v>45441</v>
       </c>
       <c r="B151" t="s">
@@ -4563,7 +4567,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
+      <c r="A152" s="4">
         <v>45442</v>
       </c>
       <c r="B152" t="s">
@@ -4577,7 +4581,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
+      <c r="A153" s="4">
         <v>45443</v>
       </c>
       <c r="B153" t="s">
@@ -4591,7 +4595,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
+      <c r="A154" s="4">
         <v>45444</v>
       </c>
       <c r="B154" t="s">
@@ -4605,7 +4609,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
+      <c r="A155" s="4">
         <v>45445</v>
       </c>
       <c r="B155" t="s">
@@ -4619,7 +4623,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
+      <c r="A156" s="4">
         <v>45446</v>
       </c>
       <c r="B156" t="s">
@@ -4633,7 +4637,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+      <c r="A157" s="4">
         <v>45447</v>
       </c>
       <c r="B157" t="s">
@@ -4647,7 +4651,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+      <c r="A158" s="4">
         <v>45448</v>
       </c>
       <c r="B158" t="s">
@@ -4661,7 +4665,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+      <c r="A159" s="4">
         <v>45449</v>
       </c>
       <c r="B159" t="s">
@@ -4675,7 +4679,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+      <c r="A160" s="4">
         <v>45450</v>
       </c>
       <c r="B160" t="s">
@@ -4689,7 +4693,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+      <c r="A161" s="4">
         <v>45451</v>
       </c>
       <c r="B161" t="s">
@@ -4703,7 +4707,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
+      <c r="A162" s="4">
         <v>45452</v>
       </c>
       <c r="B162" t="s">
@@ -4717,7 +4721,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
+      <c r="A163" s="4">
         <v>45453</v>
       </c>
       <c r="B163" t="s">
@@ -4731,7 +4735,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
+      <c r="A164" s="4">
         <v>45454</v>
       </c>
       <c r="B164" t="s">
@@ -4745,7 +4749,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
+      <c r="A165" s="4">
         <v>45455</v>
       </c>
       <c r="B165" t="s">
@@ -4759,7 +4763,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+      <c r="A166" s="4">
         <v>45456</v>
       </c>
       <c r="B166" t="s">
@@ -4773,7 +4777,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+      <c r="A167" s="4">
         <v>45457</v>
       </c>
       <c r="B167" t="s">
@@ -4787,7 +4791,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+      <c r="A168" s="4">
         <v>45458</v>
       </c>
       <c r="B168" t="s">
@@ -4801,7 +4805,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+      <c r="A169" s="4">
         <v>45459</v>
       </c>
       <c r="B169" t="s">
@@ -4815,7 +4819,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
+      <c r="A170" s="4">
         <v>45460</v>
       </c>
       <c r="B170" t="s">
@@ -4829,7 +4833,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
+      <c r="A171" s="4">
         <v>45461</v>
       </c>
       <c r="B171" t="s">
@@ -4843,7 +4847,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
+      <c r="A172" s="4">
         <v>45462</v>
       </c>
       <c r="B172" t="s">
@@ -4857,7 +4861,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
+      <c r="A173" s="4">
         <v>45463</v>
       </c>
       <c r="B173" t="s">
@@ -4871,7 +4875,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
+      <c r="A174" s="4">
         <v>45464</v>
       </c>
       <c r="B174" t="s">
@@ -4885,7 +4889,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
+      <c r="A175" s="4">
         <v>45465</v>
       </c>
       <c r="B175" t="s">
@@ -4899,7 +4903,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
+      <c r="A176" s="4">
         <v>45466</v>
       </c>
       <c r="B176" t="s">
@@ -4913,7 +4917,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
+      <c r="A177" s="4">
         <v>45467</v>
       </c>
       <c r="B177" t="s">
@@ -4927,7 +4931,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
+      <c r="A178" s="4">
         <v>45468</v>
       </c>
       <c r="B178" t="s">
@@ -4941,7 +4945,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
+      <c r="A179" s="4">
         <v>45469</v>
       </c>
       <c r="B179" t="s">
@@ -4955,7 +4959,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
+      <c r="A180" s="4">
         <v>45470</v>
       </c>
       <c r="B180" t="s">
@@ -4969,7 +4973,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
+      <c r="A181" s="4">
         <v>45471</v>
       </c>
       <c r="B181" t="s">
@@ -4983,7 +4987,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
+      <c r="A182" s="4">
         <v>45472</v>
       </c>
       <c r="B182" t="s">
@@ -4997,7 +5001,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
+      <c r="A183" s="4">
         <v>45473</v>
       </c>
       <c r="B183" t="s">
@@ -5009,7 +5013,7 @@
       <c r="E183" s="2"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
+      <c r="A184" s="4">
         <v>45474</v>
       </c>
       <c r="B184" t="s">
@@ -5021,7 +5025,7 @@
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
+      <c r="A185" s="4">
         <v>45475</v>
       </c>
       <c r="B185" t="s">
@@ -5033,7 +5037,7 @@
       <c r="E185" s="2"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
+      <c r="A186" s="4">
         <v>45476</v>
       </c>
       <c r="B186" t="s">
@@ -5045,7 +5049,7 @@
       <c r="E186" s="2"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
+      <c r="A187" s="4">
         <v>45477</v>
       </c>
       <c r="B187" t="s">
@@ -5057,7 +5061,7 @@
       <c r="E187" s="2"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
+      <c r="A188" s="4">
         <v>45478</v>
       </c>
       <c r="B188" t="s">
@@ -5069,7 +5073,7 @@
       <c r="E188" s="2"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
+      <c r="A189" s="4">
         <v>45479</v>
       </c>
       <c r="B189" t="s">
@@ -5081,7 +5085,7 @@
       <c r="E189" s="2"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
+      <c r="A190" s="4">
         <v>45480</v>
       </c>
       <c r="B190" t="s">
@@ -5093,7 +5097,7 @@
       <c r="E190" s="2"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
+      <c r="A191" s="4">
         <v>45481</v>
       </c>
       <c r="B191" t="s">
@@ -5105,7 +5109,7 @@
       <c r="E191" s="2"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
+      <c r="A192" s="4">
         <v>45482</v>
       </c>
       <c r="B192" t="s">
@@ -5117,7 +5121,7 @@
       <c r="E192" s="2"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
+      <c r="A193" s="4">
         <v>45483</v>
       </c>
       <c r="B193" t="s">
@@ -5129,7 +5133,7 @@
       <c r="E193" s="2"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
+      <c r="A194" s="4">
         <v>45484</v>
       </c>
       <c r="B194" t="s">
@@ -5141,7 +5145,7 @@
       <c r="E194" s="2"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
+      <c r="A195" s="4">
         <v>45485</v>
       </c>
       <c r="B195" t="s">
@@ -5153,7 +5157,7 @@
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
+      <c r="A196" s="4">
         <v>45486</v>
       </c>
       <c r="B196" t="s">
@@ -5165,7 +5169,7 @@
       <c r="E196" s="2"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
+      <c r="A197" s="4">
         <v>45487</v>
       </c>
       <c r="B197" t="s">
@@ -5177,7 +5181,7 @@
       <c r="E197" s="2"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
+      <c r="A198" s="4">
         <v>45488</v>
       </c>
       <c r="B198" t="s">
@@ -5189,7 +5193,7 @@
       <c r="E198" s="2"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
+      <c r="A199" s="4">
         <v>45489</v>
       </c>
       <c r="B199" t="s">
@@ -5201,7 +5205,7 @@
       <c r="E199" s="2"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
+      <c r="A200" s="4">
         <v>45490</v>
       </c>
       <c r="B200" t="s">
@@ -5213,7 +5217,7 @@
       <c r="E200" s="2"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
+      <c r="A201" s="4">
         <v>45491</v>
       </c>
       <c r="B201" t="s">
@@ -5225,7 +5229,7 @@
       <c r="E201" s="2"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
+      <c r="A202" s="4">
         <v>45492</v>
       </c>
       <c r="B202" t="s">
@@ -5237,7 +5241,7 @@
       <c r="E202" s="2"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
+      <c r="A203" s="4">
         <v>45493</v>
       </c>
       <c r="B203" t="s">
@@ -5249,7 +5253,7 @@
       <c r="E203" s="2"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
+      <c r="A204" s="4">
         <v>45494</v>
       </c>
       <c r="B204" t="s">
@@ -5261,7 +5265,7 @@
       <c r="E204" s="2"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
+      <c r="A205" s="4">
         <v>45495</v>
       </c>
       <c r="B205" t="s">
@@ -5273,7 +5277,7 @@
       <c r="E205" s="2"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
+      <c r="A206" s="4">
         <v>45496</v>
       </c>
       <c r="B206" t="s">
@@ -5285,7 +5289,7 @@
       <c r="E206" s="2"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
+      <c r="A207" s="4">
         <v>45497</v>
       </c>
       <c r="B207" t="s">
@@ -5297,7 +5301,7 @@
       <c r="E207" s="2"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
+      <c r="A208" s="4">
         <v>45498</v>
       </c>
       <c r="B208" t="s">
@@ -5309,7 +5313,7 @@
       <c r="E208" s="2"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
+      <c r="A209" s="4">
         <v>45499</v>
       </c>
       <c r="B209" t="s">
@@ -5321,7 +5325,7 @@
       <c r="E209" s="2"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
+      <c r="A210" s="4">
         <v>45500</v>
       </c>
       <c r="B210" t="s">
@@ -5333,7 +5337,7 @@
       <c r="E210" s="2"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
+      <c r="A211" s="4">
         <v>45501</v>
       </c>
       <c r="B211" t="s">
@@ -5345,7 +5349,7 @@
       <c r="E211" s="2"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
+      <c r="A212" s="4">
         <v>45502</v>
       </c>
       <c r="B212" t="s">
@@ -5357,7 +5361,7 @@
       <c r="E212" s="2"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
+      <c r="A213" s="4">
         <v>45503</v>
       </c>
       <c r="B213" t="s">
@@ -5369,7 +5373,7 @@
       <c r="E213" s="2"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
+      <c r="A214" s="4">
         <v>45504</v>
       </c>
       <c r="B214" t="s">
@@ -5381,7 +5385,7 @@
       <c r="E214" s="2"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
+      <c r="A215" s="4">
         <v>45505</v>
       </c>
       <c r="B215" t="s">
@@ -5393,7 +5397,7 @@
       <c r="E215" s="2"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
+      <c r="A216" s="4">
         <v>45506</v>
       </c>
       <c r="B216" t="s">
@@ -5405,7 +5409,7 @@
       <c r="E216" s="2"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
+      <c r="A217" s="4">
         <v>45507</v>
       </c>
       <c r="B217" t="s">
@@ -5417,7 +5421,7 @@
       <c r="E217" s="2"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
+      <c r="A218" s="4">
         <v>45508</v>
       </c>
       <c r="B218" t="s">
@@ -5429,7 +5433,7 @@
       <c r="E218" s="2"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
+      <c r="A219" s="4">
         <v>45509</v>
       </c>
       <c r="B219" t="s">
@@ -5441,7 +5445,7 @@
       <c r="E219" s="2"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
+      <c r="A220" s="4">
         <v>45510</v>
       </c>
       <c r="B220" t="s">
@@ -5453,7 +5457,7 @@
       <c r="E220" s="2"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
+      <c r="A221" s="4">
         <v>45511</v>
       </c>
       <c r="B221" t="s">
@@ -5465,7 +5469,7 @@
       <c r="E221" s="2"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
+      <c r="A222" s="4">
         <v>45512</v>
       </c>
       <c r="B222" t="s">
@@ -5477,7 +5481,7 @@
       <c r="E222" s="2"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
+      <c r="A223" s="4">
         <v>45513</v>
       </c>
       <c r="B223" t="s">
@@ -5489,7 +5493,7 @@
       <c r="E223" s="2"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
+      <c r="A224" s="4">
         <v>45514</v>
       </c>
       <c r="B224" t="s">
@@ -5501,7 +5505,7 @@
       <c r="E224" s="2"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="1">
+      <c r="A225" s="4">
         <v>45515</v>
       </c>
       <c r="B225" t="s">
@@ -5513,7 +5517,7 @@
       <c r="E225" s="2"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="1">
+      <c r="A226" s="4">
         <v>45516</v>
       </c>
       <c r="B226" t="s">
@@ -5525,7 +5529,7 @@
       <c r="E226" s="2"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="1">
+      <c r="A227" s="4">
         <v>45517</v>
       </c>
       <c r="B227" t="s">
@@ -5537,7 +5541,7 @@
       <c r="E227" s="2"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="1">
+      <c r="A228" s="4">
         <v>45518</v>
       </c>
       <c r="B228" t="s">
@@ -5549,7 +5553,7 @@
       <c r="E228" s="2"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="1">
+      <c r="A229" s="4">
         <v>45519</v>
       </c>
       <c r="B229" t="s">
@@ -5561,7 +5565,7 @@
       <c r="E229" s="2"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="1">
+      <c r="A230" s="4">
         <v>45520</v>
       </c>
       <c r="B230" t="s">
@@ -5573,7 +5577,7 @@
       <c r="E230" s="2"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="1">
+      <c r="A231" s="4">
         <v>45521</v>
       </c>
       <c r="B231" t="s">
@@ -5585,7 +5589,7 @@
       <c r="E231" s="2"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="1">
+      <c r="A232" s="4">
         <v>45522</v>
       </c>
       <c r="B232" t="s">
@@ -5597,7 +5601,7 @@
       <c r="E232" s="2"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="1">
+      <c r="A233" s="4">
         <v>45523</v>
       </c>
       <c r="B233" t="s">
@@ -5609,7 +5613,7 @@
       <c r="E233" s="2"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="1">
+      <c r="A234" s="4">
         <v>45524</v>
       </c>
       <c r="B234" t="s">
@@ -5621,7 +5625,7 @@
       <c r="E234" s="2"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="1">
+      <c r="A235" s="4">
         <v>45525</v>
       </c>
       <c r="B235" t="s">
@@ -5633,7 +5637,7 @@
       <c r="E235" s="2"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="1">
+      <c r="A236" s="4">
         <v>45526</v>
       </c>
       <c r="B236" t="s">
@@ -5645,7 +5649,7 @@
       <c r="E236" s="2"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="1">
+      <c r="A237" s="4">
         <v>45527</v>
       </c>
       <c r="B237" t="s">
@@ -5657,7 +5661,7 @@
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="1">
+      <c r="A238" s="4">
         <v>45528</v>
       </c>
       <c r="B238" t="s">
@@ -5669,7 +5673,7 @@
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="1">
+      <c r="A239" s="4">
         <v>45529</v>
       </c>
       <c r="B239" t="s">
@@ -5681,7 +5685,7 @@
       <c r="E239" s="2"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="1">
+      <c r="A240" s="4">
         <v>45530</v>
       </c>
       <c r="B240" t="s">
@@ -5693,7 +5697,7 @@
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="1">
+      <c r="A241" s="4">
         <v>45531</v>
       </c>
       <c r="B241" t="s">
@@ -5705,7 +5709,7 @@
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="1">
+      <c r="A242" s="4">
         <v>45532</v>
       </c>
       <c r="B242" t="s">
@@ -5717,7 +5721,7 @@
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="1">
+      <c r="A243" s="4">
         <v>45533</v>
       </c>
       <c r="B243" t="s">
@@ -5729,7 +5733,7 @@
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="1">
+      <c r="A244" s="4">
         <v>45534</v>
       </c>
       <c r="B244" t="s">
@@ -5741,7 +5745,7 @@
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="1">
+      <c r="A245" s="4">
         <v>45535</v>
       </c>
       <c r="B245" t="s">
@@ -5753,7 +5757,7 @@
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="1">
+      <c r="A246" s="4">
         <v>45536</v>
       </c>
       <c r="B246" t="s">
@@ -5765,7 +5769,7 @@
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="1">
+      <c r="A247" s="4">
         <v>45537</v>
       </c>
       <c r="B247" t="s">
@@ -5777,7 +5781,7 @@
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="1">
+      <c r="A248" s="4">
         <v>45538</v>
       </c>
       <c r="B248" t="s">
@@ -5789,7 +5793,7 @@
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="1">
+      <c r="A249" s="4">
         <v>45539</v>
       </c>
       <c r="B249" t="s">
@@ -5801,7 +5805,7 @@
       <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="1">
+      <c r="A250" s="4">
         <v>45540</v>
       </c>
       <c r="B250" t="s">
@@ -5813,7 +5817,7 @@
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="1">
+      <c r="A251" s="4">
         <v>45541</v>
       </c>
       <c r="B251" t="s">
@@ -5825,7 +5829,7 @@
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="1">
+      <c r="A252" s="4">
         <v>45542</v>
       </c>
       <c r="B252" t="s">
@@ -5837,7 +5841,7 @@
       <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="1">
+      <c r="A253" s="4">
         <v>45543</v>
       </c>
       <c r="B253" t="s">
@@ -5849,7 +5853,7 @@
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="1">
+      <c r="A254" s="4">
         <v>45544</v>
       </c>
       <c r="B254" t="s">
@@ -5861,7 +5865,7 @@
       <c r="E254" s="2"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="1">
+      <c r="A255" s="4">
         <v>45545</v>
       </c>
       <c r="B255" t="s">
@@ -5873,7 +5877,7 @@
       <c r="E255" s="2"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="1">
+      <c r="A256" s="4">
         <v>45546</v>
       </c>
       <c r="B256" t="s">
@@ -5885,7 +5889,7 @@
       <c r="E256" s="2"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="1">
+      <c r="A257" s="4">
         <v>45547</v>
       </c>
       <c r="B257" t="s">
@@ -5897,7 +5901,7 @@
       <c r="E257" s="2"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="1">
+      <c r="A258" s="4">
         <v>45548</v>
       </c>
       <c r="B258" t="s">
@@ -5909,7 +5913,7 @@
       <c r="E258" s="2"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="1">
+      <c r="A259" s="4">
         <v>45549</v>
       </c>
       <c r="B259" t="s">
@@ -5921,7 +5925,7 @@
       <c r="E259" s="2"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="1">
+      <c r="A260" s="4">
         <v>45550</v>
       </c>
       <c r="B260" t="s">
@@ -5933,7 +5937,7 @@
       <c r="E260" s="2"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="1">
+      <c r="A261" s="4">
         <v>45551</v>
       </c>
       <c r="B261" t="s">
@@ -5945,7 +5949,7 @@
       <c r="E261" s="2"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="1">
+      <c r="A262" s="4">
         <v>45552</v>
       </c>
       <c r="B262" t="s">
@@ -5957,7 +5961,7 @@
       <c r="E262" s="2"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="1">
+      <c r="A263" s="4">
         <v>45553</v>
       </c>
       <c r="B263" t="s">
@@ -5969,7 +5973,7 @@
       <c r="E263" s="2"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="1">
+      <c r="A264" s="4">
         <v>45554</v>
       </c>
       <c r="B264" t="s">
@@ -5981,7 +5985,7 @@
       <c r="E264" s="2"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="1">
+      <c r="A265" s="4">
         <v>45555</v>
       </c>
       <c r="B265" t="s">
@@ -5993,7 +5997,7 @@
       <c r="E265" s="2"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="1">
+      <c r="A266" s="4">
         <v>45556</v>
       </c>
       <c r="B266" t="s">
@@ -6005,7 +6009,7 @@
       <c r="E266" s="2"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="1">
+      <c r="A267" s="4">
         <v>45557</v>
       </c>
       <c r="B267" t="s">
@@ -6017,7 +6021,7 @@
       <c r="E267" s="2"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="1">
+      <c r="A268" s="4">
         <v>45558</v>
       </c>
       <c r="B268" t="s">
@@ -6029,7 +6033,7 @@
       <c r="E268" s="2"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="1">
+      <c r="A269" s="4">
         <v>45559</v>
       </c>
       <c r="B269" t="s">
@@ -6041,7 +6045,7 @@
       <c r="E269" s="2"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="1">
+      <c r="A270" s="4">
         <v>45560</v>
       </c>
       <c r="B270" t="s">
@@ -6053,7 +6057,7 @@
       <c r="E270" s="2"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="1">
+      <c r="A271" s="4">
         <v>45561</v>
       </c>
       <c r="B271" t="s">
@@ -6065,7 +6069,7 @@
       <c r="E271" s="2"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="1">
+      <c r="A272" s="4">
         <v>45562</v>
       </c>
       <c r="B272" t="s">
@@ -6077,7 +6081,7 @@
       <c r="E272" s="2"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="1">
+      <c r="A273" s="4">
         <v>45563</v>
       </c>
       <c r="B273" t="s">
@@ -6089,7 +6093,7 @@
       <c r="E273" s="2"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="1">
+      <c r="A274" s="4">
         <v>45564</v>
       </c>
       <c r="B274" t="s">
@@ -6101,7 +6105,7 @@
       <c r="E274" s="2"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="1">
+      <c r="A275" s="4">
         <v>45565</v>
       </c>
       <c r="B275" t="s">
@@ -6113,7 +6117,7 @@
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="1">
+      <c r="A276" s="4">
         <v>45566</v>
       </c>
       <c r="B276" t="s">
@@ -6125,7 +6129,7 @@
       <c r="E276" s="2"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="1">
+      <c r="A277" s="4">
         <v>45567</v>
       </c>
       <c r="B277" t="s">
@@ -6137,7 +6141,7 @@
       <c r="E277" s="2"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="1">
+      <c r="A278" s="4">
         <v>45568</v>
       </c>
       <c r="B278" t="s">
@@ -6149,7 +6153,7 @@
       <c r="E278" s="2"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="1">
+      <c r="A279" s="4">
         <v>45569</v>
       </c>
       <c r="B279" t="s">
@@ -6161,7 +6165,7 @@
       <c r="E279" s="2"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="1">
+      <c r="A280" s="4">
         <v>45570</v>
       </c>
       <c r="B280" t="s">
@@ -6173,7 +6177,7 @@
       <c r="E280" s="2"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="1">
+      <c r="A281" s="4">
         <v>45571</v>
       </c>
       <c r="B281" t="s">
@@ -6185,7 +6189,7 @@
       <c r="E281" s="2"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="1">
+      <c r="A282" s="4">
         <v>45572</v>
       </c>
       <c r="B282" t="s">
@@ -6197,7 +6201,7 @@
       <c r="E282" s="2"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="1">
+      <c r="A283" s="4">
         <v>45573</v>
       </c>
       <c r="B283" t="s">
@@ -6209,7 +6213,7 @@
       <c r="E283" s="2"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="1">
+      <c r="A284" s="4">
         <v>45574</v>
       </c>
       <c r="B284" t="s">
@@ -6221,7 +6225,7 @@
       <c r="E284" s="2"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="1">
+      <c r="A285" s="4">
         <v>45575</v>
       </c>
       <c r="B285" t="s">
@@ -6233,7 +6237,7 @@
       <c r="E285" s="2"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="1">
+      <c r="A286" s="4">
         <v>45576</v>
       </c>
       <c r="B286" t="s">
@@ -6245,7 +6249,7 @@
       <c r="E286" s="2"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="1">
+      <c r="A287" s="4">
         <v>45577</v>
       </c>
       <c r="B287" t="s">
@@ -6257,7 +6261,7 @@
       <c r="E287" s="2"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="1">
+      <c r="A288" s="4">
         <v>45578</v>
       </c>
       <c r="B288" t="s">
@@ -6269,7 +6273,7 @@
       <c r="E288" s="2"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="1">
+      <c r="A289" s="4">
         <v>45579</v>
       </c>
       <c r="B289" t="s">
@@ -6281,7 +6285,7 @@
       <c r="E289" s="2"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="1">
+      <c r="A290" s="4">
         <v>45580</v>
       </c>
       <c r="B290" t="s">
@@ -6293,7 +6297,7 @@
       <c r="E290" s="2"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="1">
+      <c r="A291" s="4">
         <v>45581</v>
       </c>
       <c r="B291" t="s">
@@ -6305,7 +6309,7 @@
       <c r="E291" s="2"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="1">
+      <c r="A292" s="4">
         <v>45582</v>
       </c>
       <c r="B292" t="s">
@@ -6317,7 +6321,7 @@
       <c r="E292" s="2"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="1">
+      <c r="A293" s="4">
         <v>45583</v>
       </c>
       <c r="B293" t="s">
@@ -6329,7 +6333,7 @@
       <c r="E293" s="2"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="1">
+      <c r="A294" s="4">
         <v>45584</v>
       </c>
       <c r="B294" t="s">
@@ -6341,7 +6345,7 @@
       <c r="E294" s="2"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="1">
+      <c r="A295" s="4">
         <v>45585</v>
       </c>
       <c r="B295" t="s">
@@ -6353,7 +6357,7 @@
       <c r="E295" s="2"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="1">
+      <c r="A296" s="4">
         <v>45586</v>
       </c>
       <c r="B296" t="s">
@@ -6365,7 +6369,7 @@
       <c r="E296" s="2"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="1">
+      <c r="A297" s="4">
         <v>45587</v>
       </c>
       <c r="B297" t="s">
@@ -6377,7 +6381,7 @@
       <c r="E297" s="2"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
+      <c r="A298" s="4">
         <v>45588</v>
       </c>
       <c r="B298" t="s">
@@ -6389,7 +6393,7 @@
       <c r="E298" s="2"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="1">
+      <c r="A299" s="4">
         <v>45589</v>
       </c>
       <c r="B299" t="s">
@@ -6401,7 +6405,7 @@
       <c r="E299" s="2"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="1">
+      <c r="A300" s="4">
         <v>45590</v>
       </c>
       <c r="B300" t="s">
@@ -6413,7 +6417,7 @@
       <c r="E300" s="2"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="1">
+      <c r="A301" s="4">
         <v>45591</v>
       </c>
       <c r="B301" t="s">
@@ -6425,7 +6429,7 @@
       <c r="E301" s="2"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="1">
+      <c r="A302" s="4">
         <v>45592</v>
       </c>
       <c r="B302" t="s">
@@ -6437,7 +6441,7 @@
       <c r="E302" s="2"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="1">
+      <c r="A303" s="4">
         <v>45593</v>
       </c>
       <c r="B303" t="s">
@@ -6449,7 +6453,7 @@
       <c r="E303" s="2"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="1">
+      <c r="A304" s="4">
         <v>45594</v>
       </c>
       <c r="B304" t="s">
@@ -6461,7 +6465,7 @@
       <c r="E304" s="2"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="1">
+      <c r="A305" s="4">
         <v>45595</v>
       </c>
       <c r="B305" t="s">
@@ -6473,7 +6477,7 @@
       <c r="E305" s="2"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="1">
+      <c r="A306" s="4">
         <v>45596</v>
       </c>
       <c r="B306" t="s">
@@ -6485,7 +6489,7 @@
       <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="1">
+      <c r="A307" s="4">
         <v>45597</v>
       </c>
       <c r="B307" t="s">
@@ -6497,7 +6501,7 @@
       <c r="E307" s="2"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="1">
+      <c r="A308" s="4">
         <v>45598</v>
       </c>
       <c r="B308" t="s">
@@ -6509,7 +6513,7 @@
       <c r="E308" s="2"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="1">
+      <c r="A309" s="4">
         <v>45599</v>
       </c>
       <c r="B309" t="s">
@@ -6521,7 +6525,7 @@
       <c r="E309" s="2"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="1">
+      <c r="A310" s="4">
         <v>45600</v>
       </c>
       <c r="B310" t="s">
@@ -6533,7 +6537,7 @@
       <c r="E310" s="2"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="1">
+      <c r="A311" s="4">
         <v>45601</v>
       </c>
       <c r="B311" t="s">
@@ -6545,7 +6549,7 @@
       <c r="E311" s="2"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="1">
+      <c r="A312" s="4">
         <v>45602</v>
       </c>
       <c r="B312" t="s">
@@ -6557,7 +6561,7 @@
       <c r="E312" s="2"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="1">
+      <c r="A313" s="4">
         <v>45603</v>
       </c>
       <c r="B313" t="s">
@@ -6569,7 +6573,7 @@
       <c r="E313" s="2"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="1">
+      <c r="A314" s="4">
         <v>45604</v>
       </c>
       <c r="B314" t="s">
@@ -6581,7 +6585,7 @@
       <c r="E314" s="2"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" s="1">
+      <c r="A315" s="4">
         <v>45605</v>
       </c>
       <c r="B315" t="s">
@@ -6593,7 +6597,7 @@
       <c r="E315" s="2"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="1">
+      <c r="A316" s="4">
         <v>45606</v>
       </c>
       <c r="B316" t="s">
@@ -6605,7 +6609,7 @@
       <c r="E316" s="2"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="1">
+      <c r="A317" s="4">
         <v>45607</v>
       </c>
       <c r="B317" t="s">
@@ -6617,7 +6621,7 @@
       <c r="E317" s="2"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="1">
+      <c r="A318" s="4">
         <v>45608</v>
       </c>
       <c r="B318" t="s">
@@ -6629,7 +6633,7 @@
       <c r="E318" s="2"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="1">
+      <c r="A319" s="4">
         <v>45609</v>
       </c>
       <c r="B319" t="s">
@@ -6641,7 +6645,7 @@
       <c r="E319" s="2"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="1">
+      <c r="A320" s="4">
         <v>45610</v>
       </c>
       <c r="B320" t="s">
@@ -6653,7 +6657,7 @@
       <c r="E320" s="2"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="1">
+      <c r="A321" s="4">
         <v>45611</v>
       </c>
       <c r="B321" t="s">
@@ -6665,7 +6669,7 @@
       <c r="E321" s="2"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="1">
+      <c r="A322" s="4">
         <v>45612</v>
       </c>
       <c r="B322" t="s">
@@ -6677,7 +6681,7 @@
       <c r="E322" s="2"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="1">
+      <c r="A323" s="4">
         <v>45613</v>
       </c>
       <c r="B323" t="s">
@@ -6689,7 +6693,7 @@
       <c r="E323" s="2"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="1">
+      <c r="A324" s="4">
         <v>45614</v>
       </c>
       <c r="B324" t="s">
@@ -6701,7 +6705,7 @@
       <c r="E324" s="2"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="1">
+      <c r="A325" s="4">
         <v>45615</v>
       </c>
       <c r="B325" t="s">
@@ -6713,7 +6717,7 @@
       <c r="E325" s="2"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="1">
+      <c r="A326" s="4">
         <v>45616</v>
       </c>
       <c r="B326" t="s">
@@ -6725,7 +6729,7 @@
       <c r="E326" s="2"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="1">
+      <c r="A327" s="4">
         <v>45617</v>
       </c>
       <c r="B327" t="s">
@@ -6737,7 +6741,7 @@
       <c r="E327" s="2"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="1">
+      <c r="A328" s="4">
         <v>45618</v>
       </c>
       <c r="B328" t="s">
@@ -6749,7 +6753,7 @@
       <c r="E328" s="2"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="1">
+      <c r="A329" s="4">
         <v>45619</v>
       </c>
       <c r="B329" t="s">
@@ -6761,7 +6765,7 @@
       <c r="E329" s="2"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="1">
+      <c r="A330" s="4">
         <v>45620</v>
       </c>
       <c r="B330" t="s">
@@ -6773,7 +6777,7 @@
       <c r="E330" s="2"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="1">
+      <c r="A331" s="4">
         <v>45621</v>
       </c>
       <c r="B331" t="s">
@@ -6785,7 +6789,7 @@
       <c r="E331" s="2"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="1">
+      <c r="A332" s="4">
         <v>45622</v>
       </c>
       <c r="B332" t="s">
@@ -6797,7 +6801,7 @@
       <c r="E332" s="2"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="1">
+      <c r="A333" s="4">
         <v>45623</v>
       </c>
       <c r="B333" t="s">
@@ -6809,7 +6813,7 @@
       <c r="E333" s="2"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="1">
+      <c r="A334" s="4">
         <v>45624</v>
       </c>
       <c r="B334" t="s">
@@ -6821,7 +6825,7 @@
       <c r="E334" s="2"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="1">
+      <c r="A335" s="4">
         <v>45625</v>
       </c>
       <c r="B335" t="s">
@@ -6833,7 +6837,7 @@
       <c r="E335" s="2"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="1">
+      <c r="A336" s="4">
         <v>45626</v>
       </c>
       <c r="B336" t="s">
@@ -6845,7 +6849,7 @@
       <c r="E336" s="2"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="1">
+      <c r="A337" s="4">
         <v>45627</v>
       </c>
       <c r="B337" t="s">
@@ -6857,7 +6861,7 @@
       <c r="E337" s="2"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="1">
+      <c r="A338" s="4">
         <v>45628</v>
       </c>
       <c r="B338" t="s">
@@ -6869,7 +6873,7 @@
       <c r="E338" s="2"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="1">
+      <c r="A339" s="4">
         <v>45629</v>
       </c>
       <c r="B339" t="s">
@@ -6881,7 +6885,7 @@
       <c r="E339" s="2"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="1">
+      <c r="A340" s="4">
         <v>45630</v>
       </c>
       <c r="B340" t="s">
@@ -6893,7 +6897,7 @@
       <c r="E340" s="2"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="1">
+      <c r="A341" s="4">
         <v>45631</v>
       </c>
       <c r="B341" t="s">
@@ -6905,7 +6909,7 @@
       <c r="E341" s="2"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="1">
+      <c r="A342" s="4">
         <v>45632</v>
       </c>
       <c r="B342" t="s">
@@ -6917,7 +6921,7 @@
       <c r="E342" s="2"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="1">
+      <c r="A343" s="4">
         <v>45633</v>
       </c>
       <c r="B343" t="s">
@@ -6929,7 +6933,7 @@
       <c r="E343" s="2"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="1">
+      <c r="A344" s="4">
         <v>45634</v>
       </c>
       <c r="B344" t="s">
@@ -6941,7 +6945,7 @@
       <c r="E344" s="2"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="1">
+      <c r="A345" s="4">
         <v>45635</v>
       </c>
       <c r="B345" t="s">
@@ -6953,7 +6957,7 @@
       <c r="E345" s="2"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="1">
+      <c r="A346" s="4">
         <v>45636</v>
       </c>
       <c r="B346" t="s">
@@ -6965,7 +6969,7 @@
       <c r="E346" s="2"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="1">
+      <c r="A347" s="4">
         <v>45637</v>
       </c>
       <c r="B347" t="s">
@@ -6977,7 +6981,7 @@
       <c r="E347" s="2"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="1">
+      <c r="A348" s="4">
         <v>45638</v>
       </c>
       <c r="B348" t="s">
@@ -6989,7 +6993,7 @@
       <c r="E348" s="2"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="1">
+      <c r="A349" s="4">
         <v>45639</v>
       </c>
       <c r="B349" t="s">
@@ -7001,7 +7005,7 @@
       <c r="E349" s="2"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="1">
+      <c r="A350" s="4">
         <v>45640</v>
       </c>
       <c r="B350" t="s">
@@ -7013,7 +7017,7 @@
       <c r="E350" s="2"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="1">
+      <c r="A351" s="4">
         <v>45641</v>
       </c>
       <c r="B351" t="s">
@@ -7025,7 +7029,7 @@
       <c r="E351" s="2"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="1">
+      <c r="A352" s="4">
         <v>45642</v>
       </c>
       <c r="B352" t="s">
@@ -7037,7 +7041,7 @@
       <c r="E352" s="2"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="1">
+      <c r="A353" s="4">
         <v>45643</v>
       </c>
       <c r="B353" t="s">
@@ -7049,7 +7053,7 @@
       <c r="E353" s="2"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="1">
+      <c r="A354" s="4">
         <v>45644</v>
       </c>
       <c r="B354" t="s">
@@ -7061,7 +7065,7 @@
       <c r="E354" s="2"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" s="1">
+      <c r="A355" s="4">
         <v>45645</v>
       </c>
       <c r="B355" t="s">
@@ -7073,7 +7077,7 @@
       <c r="E355" s="2"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" s="1">
+      <c r="A356" s="4">
         <v>45646</v>
       </c>
       <c r="B356" t="s">
@@ -7085,7 +7089,7 @@
       <c r="E356" s="2"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" s="1">
+      <c r="A357" s="4">
         <v>45647</v>
       </c>
       <c r="B357" t="s">
@@ -7097,7 +7101,7 @@
       <c r="E357" s="2"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" s="1">
+      <c r="A358" s="4">
         <v>45648</v>
       </c>
       <c r="B358" t="s">
@@ -7109,7 +7113,7 @@
       <c r="E358" s="2"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="1">
+      <c r="A359" s="4">
         <v>45649</v>
       </c>
       <c r="B359" t="s">
@@ -7121,7 +7125,7 @@
       <c r="E359" s="2"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" s="1">
+      <c r="A360" s="4">
         <v>45650</v>
       </c>
       <c r="B360" t="s">
@@ -7133,7 +7137,7 @@
       <c r="E360" s="2"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="1">
+      <c r="A361" s="4">
         <v>45651</v>
       </c>
       <c r="B361" t="s">
@@ -7145,7 +7149,7 @@
       <c r="E361" s="2"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" s="1">
+      <c r="A362" s="4">
         <v>45652</v>
       </c>
       <c r="B362" t="s">
@@ -7157,7 +7161,7 @@
       <c r="E362" s="2"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="1">
+      <c r="A363" s="4">
         <v>45653</v>
       </c>
       <c r="B363" t="s">
@@ -7169,7 +7173,7 @@
       <c r="E363" s="2"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="1">
+      <c r="A364" s="4">
         <v>45654</v>
       </c>
       <c r="B364" t="s">
@@ -7181,7 +7185,7 @@
       <c r="E364" s="2"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" s="1">
+      <c r="A365" s="4">
         <v>45655</v>
       </c>
       <c r="B365" t="s">
@@ -7193,7 +7197,7 @@
       <c r="E365" s="2"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" s="1">
+      <c r="A366" s="4">
         <v>45656</v>
       </c>
       <c r="B366" t="s">
@@ -7205,7 +7209,7 @@
       <c r="E366" s="2"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" s="1">
+      <c r="A367" s="4">
         <v>45657</v>
       </c>
       <c r="B367" t="s">
@@ -7217,13 +7221,13 @@
       <c r="E367" s="2"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="E368" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/assets/qt_schedule.xlsx
+++ b/assets/qt_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayer\android_apps\daily_qt_hl\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E7D4A0-6B0C-4B07-80B8-F8FA7E8A34CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5939EE60-1EEF-4B06-89DD-3C2BF4BCB217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-106" yWindow="-106" windowWidth="22875" windowHeight="12358" xr2:uid="{03EA6E69-C154-4164-AD29-32C70FF0EC51}"/>
   </bookViews>
@@ -2213,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C5AE5-7EBE-4A4A-BD63-5A68899D1B94}">
   <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.3"/>
@@ -4042,7 +4042,7 @@
         <v>371</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4535,7 +4535,7 @@
         <v>335</v>
       </c>
       <c r="E136" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">

--- a/assets/qt_schedule.xlsx
+++ b/assets/qt_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayer\android_apps\daily_qt_hl\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5939EE60-1EEF-4B06-89DD-3C2BF4BCB217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DAF84-3AB0-47E3-B174-1F8AB65764D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-106" yWindow="-106" windowWidth="22875" windowHeight="12358" xr2:uid="{03EA6E69-C154-4164-AD29-32C70FF0EC51}"/>
+    <workbookView xWindow="1133" yWindow="1133" windowWidth="16997" windowHeight="8805" xr2:uid="{03EA6E69-C154-4164-AD29-32C70FF0EC51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="605">
   <si>
     <t>Date</t>
   </si>
@@ -1160,9 +1160,6 @@
     <t>2Samuel</t>
   </si>
   <si>
-    <t>Lut18: 1-17</t>
-  </si>
-  <si>
     <t>18:18-43</t>
   </si>
   <si>
@@ -1184,9 +1181,6 @@
     <t>21:20-38</t>
   </si>
   <si>
-    <t>22:1138</t>
-  </si>
-  <si>
     <t>22:39-71</t>
   </si>
   <si>
@@ -1199,27 +1193,15 @@
     <t>24:36-53</t>
   </si>
   <si>
-    <t>Gal 1</t>
-  </si>
-  <si>
     <t>2:1-10</t>
   </si>
   <si>
     <t>2:11-21</t>
   </si>
   <si>
-    <t>1:11</t>
-  </si>
-  <si>
     <t>4:12-31</t>
   </si>
   <si>
-    <t>Eph 1</t>
-  </si>
-  <si>
-    <t>:-1-16</t>
-  </si>
-  <si>
     <t>4:17-32</t>
   </si>
   <si>
@@ -1229,9 +1211,6 @@
     <t>5:15-33</t>
   </si>
   <si>
-    <t>Phil 1</t>
-  </si>
-  <si>
     <t>Paalm 57-59</t>
   </si>
   <si>
@@ -1325,9 +1304,6 @@
     <t>132.133.134</t>
   </si>
   <si>
-    <t>Phil 2: 1-11</t>
-  </si>
-  <si>
     <t>Pas135-136</t>
   </si>
   <si>
@@ -1343,9 +1319,6 @@
     <t>143.144.145</t>
   </si>
   <si>
-    <t>Cal 1</t>
-  </si>
-  <si>
     <t>146.147.148</t>
   </si>
   <si>
@@ -1355,27 +1328,15 @@
     <t>Prov 1-2</t>
   </si>
   <si>
-    <t>1Thess 1</t>
-  </si>
-  <si>
     <t>6.7.</t>
   </si>
   <si>
-    <t>2Thess 1</t>
-  </si>
-  <si>
-    <t>1 Tim 1</t>
-  </si>
-  <si>
     <t>27.28.29</t>
   </si>
   <si>
     <t>Ecol 1-3</t>
   </si>
   <si>
-    <t>2Tim 1</t>
-  </si>
-  <si>
     <t>Song 1-3</t>
   </si>
   <si>
@@ -1385,44 +1346,25 @@
     <t>las 1-2</t>
   </si>
   <si>
-    <t>Tit 1</t>
-  </si>
-  <si>
     <t>5.6.</t>
-  </si>
-  <si>
-    <t>3
-Phileman</t>
   </si>
   <si>
     <t>7.8.
 9.10</t>
   </si>
   <si>
-    <t>Luke 4: 1-30</t>
-  </si>
-  <si>
     <t>Job 20-21</t>
   </si>
   <si>
-    <t>431-44</t>
-  </si>
-  <si>
     <t>222324</t>
   </si>
   <si>
-    <t>&amp; 1-26</t>
-  </si>
-  <si>
     <t>25:26:27</t>
   </si>
   <si>
     <t>5:27-39</t>
   </si>
   <si>
-    <t>1-19</t>
-  </si>
-  <si>
     <t>6:20-38</t>
   </si>
   <si>
@@ -1441,9 +1383,6 @@
     <t>38.39.40</t>
   </si>
   <si>
-    <t>7:35-50</t>
-  </si>
-  <si>
     <t>41.42</t>
   </si>
   <si>
@@ -1456,9 +1395,6 @@
     <t>8:22-39</t>
   </si>
   <si>
-    <t>8:40-86</t>
-  </si>
-  <si>
     <t>9:18-36</t>
   </si>
   <si>
@@ -1480,9 +1416,6 @@
     <t>20:21:22</t>
   </si>
   <si>
-    <t>:-1-28</t>
-  </si>
-  <si>
     <t>232425</t>
   </si>
   <si>
@@ -1552,18 +1485,12 @@
     <t>5455.56</t>
   </si>
   <si>
-    <t>2Pet 2</t>
-  </si>
-  <si>
     <t>Ezelt 40-41</t>
   </si>
   <si>
     <t>42.43.44</t>
   </si>
   <si>
-    <t>1 Jahn 1</t>
-  </si>
-  <si>
     <t>45.46</t>
   </si>
   <si>
@@ -1573,21 +1500,9 @@
     <t>Dan_1-2</t>
   </si>
   <si>
-    <t>2 Jahn</t>
-  </si>
-  <si>
-    <t>3 Jahn</t>
-  </si>
-  <si>
-    <t>Juda</t>
-  </si>
-  <si>
     <t>Hases 1-4</t>
   </si>
   <si>
-    <t>Rev 1</t>
-  </si>
-  <si>
     <t>5678</t>
   </si>
   <si>
@@ -1636,9 +1551,6 @@
     <t>Malschi</t>
   </si>
   <si>
-    <t>John 19:1-22</t>
-  </si>
-  <si>
     <t>Jer 24-26</t>
   </si>
   <si>
@@ -1690,9 +1602,6 @@
     <t>11:17-40</t>
   </si>
   <si>
-    <t>Jam1: 1-11</t>
-  </si>
-  <si>
     <t>1:12-27</t>
   </si>
   <si>
@@ -1708,9 +1617,6 @@
     <t>2021.</t>
   </si>
   <si>
-    <t>1Pet 1</t>
-  </si>
-  <si>
     <t>24.25.26</t>
   </si>
   <si>
@@ -1723,27 +1629,15 @@
     <t>35.36.</t>
   </si>
   <si>
-    <t>2Pet 1</t>
-  </si>
-  <si>
-    <t>John 1: 1-28</t>
-  </si>
-  <si>
     <t>Iss 11-13</t>
   </si>
   <si>
     <t>1:29-51</t>
   </si>
   <si>
-    <t>1-2-26</t>
-  </si>
-  <si>
     <t>4:27-54</t>
   </si>
   <si>
-    <t>1-24</t>
-  </si>
-  <si>
     <t>5:25-47</t>
   </si>
   <si>
@@ -1762,9 +1656,6 @@
     <t>39.40</t>
   </si>
   <si>
-    <t>7:14-39</t>
-  </si>
-  <si>
     <t>7:37-53</t>
   </si>
   <si>
@@ -1798,9 +1689,6 @@
     <t>56.57.58</t>
   </si>
   <si>
-    <t>1: 1-44</t>
-  </si>
-  <si>
     <t>596061</t>
   </si>
   <si>
@@ -1838,6 +1726,135 @@
   </si>
   <si>
     <t>18:19-40</t>
+  </si>
+  <si>
+    <t>5:1-26</t>
+  </si>
+  <si>
+    <t>4:31-44</t>
+  </si>
+  <si>
+    <t>4:1-30</t>
+  </si>
+  <si>
+    <t>6:1-19</t>
+  </si>
+  <si>
+    <t>7:36-50</t>
+  </si>
+  <si>
+    <t>9:1-17</t>
+  </si>
+  <si>
+    <t>11:1-28</t>
+  </si>
+  <si>
+    <t>18: 1-17</t>
+  </si>
+  <si>
+    <t>8:40-56</t>
+  </si>
+  <si>
+    <t>22:1-38</t>
+  </si>
+  <si>
+    <t>Galatians</t>
+  </si>
+  <si>
+    <t>4:1-11</t>
+  </si>
+  <si>
+    <t>Ephesians</t>
+  </si>
+  <si>
+    <t>4:1-16</t>
+  </si>
+  <si>
+    <t>Philippians</t>
+  </si>
+  <si>
+    <t>2: 1-11</t>
+  </si>
+  <si>
+    <t>Colossians</t>
+  </si>
+  <si>
+    <t>1Thessalonians</t>
+  </si>
+  <si>
+    <t>2Thessalonians</t>
+  </si>
+  <si>
+    <t>1Timothy</t>
+  </si>
+  <si>
+    <t>2Timothy</t>
+  </si>
+  <si>
+    <t>Titus</t>
+  </si>
+  <si>
+    <t>Philemon</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>11:1-16</t>
+  </si>
+  <si>
+    <t>1: 1-28</t>
+  </si>
+  <si>
+    <t>4:1-26</t>
+  </si>
+  <si>
+    <t>5:1-24</t>
+  </si>
+  <si>
+    <t>7:1-13</t>
+  </si>
+  <si>
+    <t>7:14-36</t>
+  </si>
+  <si>
+    <t>11: 1-44</t>
+  </si>
+  <si>
+    <t>19:1-22</t>
+  </si>
+  <si>
+    <t>Hebrews</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>1: 1-11</t>
+  </si>
+  <si>
+    <t>1Peter</t>
+  </si>
+  <si>
+    <t>1 John</t>
+  </si>
+  <si>
+    <t>2  John</t>
+  </si>
+  <si>
+    <t>2 Peter</t>
+  </si>
+  <si>
+    <t>Jude</t>
+  </si>
+  <si>
+    <t>Revelation</t>
+  </si>
+  <si>
+    <t>14,15</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +1913,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2213,15 +2232,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C5AE5-7EBE-4A4A-BD63-5A68899D1B94}">
   <dimension ref="A1:E368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView tabSelected="1" topLeftCell="C350" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B341" sqref="B341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -2233,7 +2252,7 @@
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
@@ -2267,7 +2286,7 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D3" t="s">
@@ -2284,7 +2303,7 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D4" t="s">
@@ -2301,7 +2320,7 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D5" t="s">
@@ -2318,7 +2337,7 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>294</v>
       </c>
       <c r="D6" t="s">
@@ -2335,7 +2354,7 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>295</v>
       </c>
       <c r="D7" t="s">
@@ -2352,7 +2371,7 @@
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>296</v>
       </c>
       <c r="D8" t="s">
@@ -2369,7 +2388,7 @@
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>297</v>
       </c>
       <c r="D9" t="s">
@@ -2386,7 +2405,7 @@
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>188</v>
       </c>
       <c r="D10" t="s">
@@ -2403,7 +2422,7 @@
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>314</v>
       </c>
       <c r="D11" t="s">
@@ -2420,7 +2439,7 @@
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>298</v>
       </c>
       <c r="D12" t="s">
@@ -2437,7 +2456,7 @@
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>315</v>
       </c>
       <c r="D13" t="s">
@@ -2454,7 +2473,7 @@
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>299</v>
       </c>
       <c r="D14" t="s">
@@ -2471,7 +2490,7 @@
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>300</v>
       </c>
       <c r="D15" t="s">
@@ -2488,7 +2507,7 @@
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D16" t="s">
@@ -2505,7 +2524,7 @@
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D17" t="s">
@@ -2522,7 +2541,7 @@
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>302</v>
       </c>
       <c r="D18" t="s">
@@ -2539,7 +2558,7 @@
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>303</v>
       </c>
       <c r="D19" t="s">
@@ -2556,7 +2575,7 @@
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D20" t="s">
@@ -2573,7 +2592,7 @@
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>304</v>
       </c>
       <c r="D21" t="s">
@@ -2590,7 +2609,7 @@
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D22" t="s">
@@ -2607,7 +2626,7 @@
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>316</v>
       </c>
       <c r="D23" t="s">
@@ -2624,7 +2643,7 @@
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>305</v>
       </c>
       <c r="D24" t="s">
@@ -2641,7 +2660,7 @@
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D25" t="s">
@@ -2658,7 +2677,7 @@
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>306</v>
       </c>
       <c r="D26" t="s">
@@ -2675,7 +2694,7 @@
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>307</v>
       </c>
       <c r="D27" t="s">
@@ -2692,7 +2711,7 @@
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>308</v>
       </c>
       <c r="D28" t="s">
@@ -2709,7 +2728,7 @@
       <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>309</v>
       </c>
       <c r="D29" t="s">
@@ -2726,7 +2745,7 @@
       <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>310</v>
       </c>
       <c r="D30" t="s">
@@ -2743,7 +2762,7 @@
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>311</v>
       </c>
       <c r="D31" t="s">
@@ -2760,7 +2779,7 @@
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>312</v>
       </c>
       <c r="D32" t="s">
@@ -2777,7 +2796,7 @@
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>313</v>
       </c>
       <c r="D33" t="s">
@@ -2794,7 +2813,7 @@
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D34" t="s">
@@ -2811,7 +2830,7 @@
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D35" t="s">
@@ -2828,7 +2847,7 @@
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>345</v>
       </c>
       <c r="D36" t="s">
@@ -2845,7 +2864,7 @@
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D37" t="s">
@@ -2862,7 +2881,7 @@
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D38" t="s">
@@ -2879,7 +2898,7 @@
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D39" t="s">
@@ -2896,7 +2915,7 @@
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D40" t="s">
@@ -2913,7 +2932,7 @@
       <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D41" t="s">
@@ -2930,7 +2949,7 @@
       <c r="B42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>317</v>
       </c>
       <c r="D42" t="s">
@@ -2947,7 +2966,7 @@
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D43" t="s">
@@ -2964,7 +2983,7 @@
       <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D44" t="s">
@@ -2981,7 +3000,7 @@
       <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D45" t="s">
@@ -2998,7 +3017,7 @@
       <c r="B46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D46" t="s">
@@ -3015,7 +3034,7 @@
       <c r="B47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D47" t="s">
@@ -3032,7 +3051,7 @@
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D48" t="s">
@@ -3066,7 +3085,7 @@
       <c r="B50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D50" t="s">
@@ -3083,7 +3102,7 @@
       <c r="B51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D51" t="s">
@@ -3100,7 +3119,7 @@
       <c r="B52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D52" t="s">
@@ -3117,7 +3136,7 @@
       <c r="B53" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D53" t="s">
@@ -3134,7 +3153,7 @@
       <c r="B54" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D54" t="s">
@@ -3151,7 +3170,7 @@
       <c r="B55" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D55" t="s">
@@ -3168,7 +3187,7 @@
       <c r="B56" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D56" t="s">
@@ -3185,7 +3204,7 @@
       <c r="B57" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D57" t="s">
@@ -3202,7 +3221,7 @@
       <c r="B58" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D58" t="s">
@@ -3219,7 +3238,7 @@
       <c r="B59" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D59" t="s">
@@ -3236,7 +3255,7 @@
       <c r="B60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="3" t="s">
         <v>347</v>
       </c>
       <c r="D60" t="s">
@@ -3253,7 +3272,7 @@
       <c r="B61" t="s">
         <v>319</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>2</v>
       </c>
       <c r="D61" t="s">
@@ -3270,7 +3289,7 @@
       <c r="B62" t="s">
         <v>123</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D62" t="s">
@@ -3287,7 +3306,7 @@
       <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D63" t="s">
@@ -3304,7 +3323,7 @@
       <c r="B64" t="s">
         <v>123</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D64" t="s">
@@ -3321,7 +3340,7 @@
       <c r="B65" t="s">
         <v>123</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="3" t="s">
         <v>318</v>
       </c>
       <c r="D65" t="s">
@@ -3338,7 +3357,7 @@
       <c r="B66" t="s">
         <v>123</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D66" t="s">
@@ -3355,7 +3374,7 @@
       <c r="B67" t="s">
         <v>123</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D67" t="s">
@@ -3372,7 +3391,7 @@
       <c r="B68" t="s">
         <v>123</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D68" t="s">
@@ -3389,7 +3408,7 @@
       <c r="B69" t="s">
         <v>123</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D69" t="s">
@@ -3406,7 +3425,7 @@
       <c r="B70" t="s">
         <v>123</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D70" t="s">
@@ -3423,7 +3442,7 @@
       <c r="B71" t="s">
         <v>123</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D71" t="s">
@@ -3440,7 +3459,7 @@
       <c r="B72" t="s">
         <v>123</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D72" t="s">
@@ -3457,7 +3476,7 @@
       <c r="B73" t="s">
         <v>123</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D73" t="s">
@@ -3474,7 +3493,7 @@
       <c r="B74" t="s">
         <v>123</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D74" t="s">
@@ -3491,7 +3510,7 @@
       <c r="B75" t="s">
         <v>123</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D75" t="s">
@@ -3508,7 +3527,7 @@
       <c r="B76" t="s">
         <v>123</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D76" t="s">
@@ -3525,7 +3544,7 @@
       <c r="B77" t="s">
         <v>123</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D77" t="s">
@@ -3542,7 +3561,7 @@
       <c r="B78" t="s">
         <v>123</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D78" t="s">
@@ -3559,7 +3578,7 @@
       <c r="B79" t="s">
         <v>123</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D79" t="s">
@@ -3576,7 +3595,7 @@
       <c r="B80" t="s">
         <v>123</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D80" t="s">
@@ -3593,7 +3612,7 @@
       <c r="B81" t="s">
         <v>123</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D81" t="s">
@@ -3610,7 +3629,7 @@
       <c r="B82" t="s">
         <v>123</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D82" t="s">
@@ -3627,7 +3646,7 @@
       <c r="B83" t="s">
         <v>123</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="3" t="s">
         <v>143</v>
       </c>
       <c r="D83" t="s">
@@ -3644,7 +3663,7 @@
       <c r="B84" t="s">
         <v>123</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D84" t="s">
@@ -3661,7 +3680,7 @@
       <c r="B85" t="s">
         <v>123</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D85" t="s">
@@ -3678,7 +3697,7 @@
       <c r="B86" t="s">
         <v>123</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D86" t="s">
@@ -3695,7 +3714,7 @@
       <c r="B87" t="s">
         <v>123</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="3" t="s">
         <v>147</v>
       </c>
       <c r="D87" t="s">
@@ -3712,7 +3731,7 @@
       <c r="B88" t="s">
         <v>123</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D88" t="s">
@@ -3729,7 +3748,7 @@
       <c r="B89" t="s">
         <v>123</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D89" t="s">
@@ -3746,7 +3765,7 @@
       <c r="B90" t="s">
         <v>123</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D90" t="s">
@@ -3763,7 +3782,7 @@
       <c r="B91" t="s">
         <v>123</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D91" t="s">
@@ -3780,7 +3799,7 @@
       <c r="B92" t="s">
         <v>123</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D92" t="s">
@@ -3797,7 +3816,7 @@
       <c r="B93" t="s">
         <v>123</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="3" t="s">
         <v>348</v>
       </c>
       <c r="D93" t="s">
@@ -3814,7 +3833,7 @@
       <c r="B94" t="s">
         <v>123</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D94" t="s">
@@ -3831,7 +3850,7 @@
       <c r="B95" t="s">
         <v>320</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="3" t="s">
         <v>349</v>
       </c>
       <c r="D95" t="s">
@@ -3848,7 +3867,7 @@
       <c r="B96" t="s">
         <v>320</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="3" t="s">
         <v>182</v>
       </c>
       <c r="D96" t="s">
@@ -3865,7 +3884,7 @@
       <c r="B97" t="s">
         <v>320</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D97" t="s">
@@ -3882,7 +3901,7 @@
       <c r="B98" t="s">
         <v>320</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D98" t="s">
@@ -3899,7 +3918,7 @@
       <c r="B99" t="s">
         <v>320</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D99" t="s">
@@ -3916,7 +3935,7 @@
       <c r="B100" t="s">
         <v>320</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="3" t="s">
         <v>350</v>
       </c>
       <c r="D100" t="s">
@@ -3933,7 +3952,7 @@
       <c r="B101" t="s">
         <v>320</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D101" t="s">
@@ -3950,7 +3969,7 @@
       <c r="B102" t="s">
         <v>320</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="3" t="s">
         <v>351</v>
       </c>
       <c r="D102" t="s">
@@ -3967,7 +3986,7 @@
       <c r="B103" t="s">
         <v>320</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="3" t="s">
         <v>186</v>
       </c>
       <c r="D103" t="s">
@@ -3984,7 +4003,7 @@
       <c r="B104" t="s">
         <v>320</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="3" t="s">
         <v>352</v>
       </c>
       <c r="D104" t="s">
@@ -4001,7 +4020,7 @@
       <c r="B105" t="s">
         <v>320</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D105" t="s">
@@ -4018,7 +4037,7 @@
       <c r="B106" t="s">
         <v>320</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="3">
         <v>7</v>
       </c>
       <c r="D106" t="s">
@@ -4035,14 +4054,14 @@
       <c r="B107" t="s">
         <v>320</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="3" t="s">
         <v>353</v>
       </c>
       <c r="D107" t="s">
         <v>371</v>
       </c>
       <c r="E107" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4052,7 +4071,7 @@
       <c r="B108" t="s">
         <v>320</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D108" t="s">
@@ -4069,7 +4088,7 @@
       <c r="B109" t="s">
         <v>320</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="3" t="s">
         <v>354</v>
       </c>
       <c r="D109" t="s">
@@ -4086,7 +4105,7 @@
       <c r="B110" t="s">
         <v>320</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="3" t="s">
         <v>190</v>
       </c>
       <c r="D110" t="s">
@@ -4103,7 +4122,7 @@
       <c r="B111" t="s">
         <v>320</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D111" t="s">
@@ -4120,7 +4139,7 @@
       <c r="B112" t="s">
         <v>320</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D112" t="s">
@@ -4137,7 +4156,7 @@
       <c r="B113" t="s">
         <v>320</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D113" t="s">
@@ -4154,7 +4173,7 @@
       <c r="B114" t="s">
         <v>320</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D114" t="s">
@@ -4171,7 +4190,7 @@
       <c r="B115" t="s">
         <v>320</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D115" t="s">
@@ -4188,7 +4207,7 @@
       <c r="B116" t="s">
         <v>320</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D116" t="s">
@@ -4205,7 +4224,7 @@
       <c r="B117" t="s">
         <v>320</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D117" t="s">
@@ -4222,7 +4241,7 @@
       <c r="B118" t="s">
         <v>320</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D118" t="s">
@@ -4239,7 +4258,7 @@
       <c r="B119" t="s">
         <v>320</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="3" t="s">
         <v>198</v>
       </c>
       <c r="D119" t="s">
@@ -4256,7 +4275,7 @@
       <c r="B120" t="s">
         <v>320</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D120" t="s">
@@ -4273,7 +4292,7 @@
       <c r="B121" t="s">
         <v>320</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="3" t="s">
         <v>355</v>
       </c>
       <c r="D121" t="s">
@@ -4290,7 +4309,7 @@
       <c r="B122" t="s">
         <v>320</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="3" t="s">
         <v>357</v>
       </c>
       <c r="D122" t="s">
@@ -4307,7 +4326,7 @@
       <c r="B123" t="s">
         <v>320</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="3" t="s">
         <v>316</v>
       </c>
       <c r="D123" t="s">
@@ -4324,7 +4343,7 @@
       <c r="B124" t="s">
         <v>320</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="3" t="s">
         <v>356</v>
       </c>
       <c r="D124" t="s">
@@ -4358,7 +4377,7 @@
       <c r="B126" t="s">
         <v>321</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="3" t="s">
         <v>322</v>
       </c>
       <c r="D126" t="s">
@@ -4375,7 +4394,7 @@
       <c r="B127" t="s">
         <v>321</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="3" t="s">
         <v>226</v>
       </c>
       <c r="D127" t="s">
@@ -4392,7 +4411,7 @@
       <c r="B128" t="s">
         <v>321</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D128" t="s">
@@ -4409,7 +4428,7 @@
       <c r="B129" t="s">
         <v>321</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D129" t="s">
@@ -4426,7 +4445,7 @@
       <c r="B130" t="s">
         <v>321</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D130" t="s">
@@ -4460,7 +4479,7 @@
       <c r="B132" t="s">
         <v>321</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D132" t="s">
@@ -4477,7 +4496,7 @@
       <c r="B133" t="s">
         <v>321</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="3" t="s">
         <v>188</v>
       </c>
       <c r="D133" t="s">
@@ -4494,7 +4513,7 @@
       <c r="B134" t="s">
         <v>321</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="3" t="s">
         <v>315</v>
       </c>
       <c r="D134" t="s">
@@ -4511,7 +4530,7 @@
       <c r="B135" t="s">
         <v>321</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D135" t="s">
@@ -4528,7 +4547,7 @@
       <c r="B136" t="s">
         <v>321</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="3" t="s">
         <v>230</v>
       </c>
       <c r="D136" t="s">
@@ -4545,7 +4564,7 @@
       <c r="B137" t="s">
         <v>321</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D137" t="s">
@@ -4562,7 +4581,7 @@
       <c r="B138" t="s">
         <v>321</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="3" t="s">
         <v>362</v>
       </c>
       <c r="D138" t="s">
@@ -4579,7 +4598,7 @@
       <c r="B139" t="s">
         <v>321</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="3" t="s">
         <v>233</v>
       </c>
       <c r="D139" t="s">
@@ -4596,7 +4615,7 @@
       <c r="B140" t="s">
         <v>321</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D140" t="s">
@@ -4613,7 +4632,7 @@
       <c r="B141" t="s">
         <v>321</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D141" t="s">
@@ -4630,7 +4649,7 @@
       <c r="B142" t="s">
         <v>321</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D142" t="s">
@@ -4647,7 +4666,7 @@
       <c r="B143" t="s">
         <v>321</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="3" t="s">
         <v>363</v>
       </c>
       <c r="D143" t="s">
@@ -4664,7 +4683,7 @@
       <c r="B144" t="s">
         <v>321</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D144" t="s">
@@ -4681,7 +4700,7 @@
       <c r="B145" t="s">
         <v>321</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D145" t="s">
@@ -4698,7 +4717,7 @@
       <c r="B146" t="s">
         <v>323</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="3" t="s">
         <v>322</v>
       </c>
       <c r="D146" t="s">
@@ -4715,7 +4734,7 @@
       <c r="B147" t="s">
         <v>323</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D147" t="s">
@@ -4732,7 +4751,7 @@
       <c r="B148" t="s">
         <v>323</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D148" t="s">
@@ -4749,7 +4768,7 @@
       <c r="B149" t="s">
         <v>323</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D149" t="s">
@@ -4766,7 +4785,7 @@
       <c r="B150" t="s">
         <v>323</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D150" t="s">
@@ -4783,7 +4802,7 @@
       <c r="B151" t="s">
         <v>323</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="3" t="s">
         <v>238</v>
       </c>
       <c r="D151" t="s">
@@ -4800,7 +4819,7 @@
       <c r="B152" t="s">
         <v>323</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D152" t="s">
@@ -4817,7 +4836,7 @@
       <c r="B153" t="s">
         <v>323</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D153" t="s">
@@ -4834,7 +4853,7 @@
       <c r="B154" t="s">
         <v>323</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="3" t="s">
         <v>325</v>
       </c>
       <c r="D154" t="s">
@@ -4851,7 +4870,7 @@
       <c r="B155" t="s">
         <v>323</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D155" t="s">
@@ -4885,7 +4904,7 @@
       <c r="B157" t="s">
         <v>323</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D157" t="s">
@@ -4902,7 +4921,7 @@
       <c r="B158" t="s">
         <v>323</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D158" t="s">
@@ -4919,7 +4938,7 @@
       <c r="B159" t="s">
         <v>323</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D159" t="s">
@@ -4936,7 +4955,7 @@
       <c r="B160" t="s">
         <v>323</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D160" t="s">
@@ -4953,7 +4972,7 @@
       <c r="B161" t="s">
         <v>323</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D161" t="s">
@@ -4970,7 +4989,7 @@
       <c r="B162" t="s">
         <v>323</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="3" t="s">
         <v>364</v>
       </c>
       <c r="D162" t="s">
@@ -4987,7 +5006,7 @@
       <c r="B163" t="s">
         <v>323</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="3" t="s">
         <v>260</v>
       </c>
       <c r="D163" t="s">
@@ -5004,7 +5023,7 @@
       <c r="B164" t="s">
         <v>323</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D164" t="s">
@@ -5038,7 +5057,7 @@
       <c r="B166" t="s">
         <v>324</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D166" t="s">
@@ -5055,7 +5074,7 @@
       <c r="B167" t="s">
         <v>324</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D167" t="s">
@@ -5072,7 +5091,7 @@
       <c r="B168" t="s">
         <v>324</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="3" t="s">
         <v>227</v>
       </c>
       <c r="D168" t="s">
@@ -5089,7 +5108,7 @@
       <c r="B169" t="s">
         <v>324</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="3" t="s">
         <v>238</v>
       </c>
       <c r="D169" t="s">
@@ -5106,7 +5125,7 @@
       <c r="B170" t="s">
         <v>324</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D170" t="s">
@@ -5123,7 +5142,7 @@
       <c r="B171" t="s">
         <v>324</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="3" t="s">
         <v>188</v>
       </c>
       <c r="D171" t="s">
@@ -5140,7 +5159,7 @@
       <c r="B172" t="s">
         <v>324</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="3" t="s">
         <v>257</v>
       </c>
       <c r="D172" t="s">
@@ -5157,7 +5176,7 @@
       <c r="B173" t="s">
         <v>324</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="3" t="s">
         <v>230</v>
       </c>
       <c r="D173" t="s">
@@ -5174,7 +5193,7 @@
       <c r="B174" t="s">
         <v>324</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="3" t="s">
         <v>231</v>
       </c>
       <c r="D174" t="s">
@@ -5191,7 +5210,7 @@
       <c r="B175" t="s">
         <v>324</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D175" t="s">
@@ -5208,7 +5227,7 @@
       <c r="B176" t="s">
         <v>324</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D176" t="s">
@@ -5225,7 +5244,7 @@
       <c r="B177" t="s">
         <v>324</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D177" t="s">
@@ -5242,7 +5261,7 @@
       <c r="B178" t="s">
         <v>365</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="3" t="s">
         <v>366</v>
       </c>
       <c r="D178" t="s">
@@ -5259,7 +5278,7 @@
       <c r="B179" t="s">
         <v>365</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="3" t="s">
         <v>263</v>
       </c>
       <c r="D179" t="s">
@@ -5276,7 +5295,7 @@
       <c r="B180" t="s">
         <v>365</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="3" t="s">
         <v>264</v>
       </c>
       <c r="D180" t="s">
@@ -5293,7 +5312,7 @@
       <c r="B181" t="s">
         <v>365</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="3" t="s">
         <v>369</v>
       </c>
       <c r="D181" t="s">
@@ -5310,7 +5329,7 @@
       <c r="B182" t="s">
         <v>365</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="3" t="s">
         <v>370</v>
       </c>
       <c r="D182" t="s">
@@ -5341,43 +5360,55 @@
       <c r="A184" s="4">
         <v>45474</v>
       </c>
-      <c r="C184" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E184" s="8" t="s">
-        <v>453</v>
+      <c r="B184" t="s">
+        <v>365</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>45475</v>
       </c>
-      <c r="C185" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E185" s="8" t="s">
-        <v>455</v>
+      <c r="B185" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>45476</v>
       </c>
-      <c r="C186" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>457</v>
+      <c r="B186" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>45477</v>
       </c>
-      <c r="C187" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E187" s="8" t="s">
+      <c r="B187" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E187" s="7" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5385,10 +5416,13 @@
       <c r="A188" s="4">
         <v>45478</v>
       </c>
-      <c r="C188" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E188" s="8" t="s">
+      <c r="B188" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E188" s="7" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5396,10 +5430,13 @@
       <c r="A189" s="4">
         <v>45479</v>
       </c>
-      <c r="C189" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E189" s="8" t="s">
+      <c r="B189" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E189" s="7" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5407,65 +5444,83 @@
       <c r="A190" s="4">
         <v>45480</v>
       </c>
-      <c r="C190" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>462</v>
+      <c r="B190" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>45481</v>
       </c>
-      <c r="C191" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>463</v>
+      <c r="B191" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>45482</v>
       </c>
-      <c r="C192" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>465</v>
+      <c r="B192" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>45483</v>
       </c>
-      <c r="C193" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>467</v>
+      <c r="B193" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>45484</v>
       </c>
-      <c r="C194" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>469</v>
+      <c r="B194" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>45485</v>
       </c>
-      <c r="C195" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="E195" s="8" t="s">
+      <c r="B195" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E195" s="7" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5473,10 +5528,13 @@
       <c r="A196" s="4">
         <v>45486</v>
       </c>
-      <c r="C196" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="E196" s="8" t="s">
+      <c r="B196" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="E196" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5484,10 +5542,13 @@
       <c r="A197" s="4">
         <v>45487</v>
       </c>
-      <c r="C197" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E197" s="8" t="s">
+      <c r="B197" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E197" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5495,10 +5556,13 @@
       <c r="A198" s="4">
         <v>45488</v>
       </c>
-      <c r="C198" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="E198" s="8" t="s">
+      <c r="B198" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E198" s="7" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5506,604 +5570,769 @@
       <c r="A199" s="4">
         <v>45489</v>
       </c>
-      <c r="C199" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>474</v>
+      <c r="B199" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>45490</v>
       </c>
-      <c r="C200" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>476</v>
+      <c r="B200" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>45491</v>
       </c>
-      <c r="C201" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>478</v>
+      <c r="B201" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>45492</v>
       </c>
-      <c r="C202" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>480</v>
+      <c r="B202" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>45493</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>482</v>
+      <c r="B203" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>45494</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="B204" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C204" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E204" s="8" t="s">
-        <v>483</v>
+      <c r="E204" s="7" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>45495</v>
       </c>
-      <c r="C205" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>485</v>
+      <c r="B205" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>45496</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>487</v>
+      <c r="B206" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>45497</v>
       </c>
-      <c r="C207" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>489</v>
+      <c r="B207" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>45498</v>
       </c>
-      <c r="C208" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>491</v>
+      <c r="B208" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>45499</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>493</v>
+      <c r="B209" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>45500</v>
       </c>
-      <c r="C210" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="E210" s="8" t="s">
-        <v>495</v>
+      <c r="B210" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>45501</v>
       </c>
-      <c r="C211" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>497</v>
+      <c r="B211" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>45502</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="B212" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E212" s="8" t="s">
-        <v>498</v>
+      <c r="E212" s="7" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>45503</v>
       </c>
-      <c r="C213" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>500</v>
+      <c r="B213" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>45504</v>
       </c>
-      <c r="C214" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E214" s="8" t="s">
-        <v>502</v>
+      <c r="B214" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>45505</v>
       </c>
-      <c r="C215" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E215" s="6" t="s">
-        <v>397</v>
+      <c r="B215" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>45506</v>
       </c>
-      <c r="C216" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>398</v>
+      <c r="B216" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>45507</v>
       </c>
-      <c r="C217" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E217" s="6" t="s">
-        <v>399</v>
+      <c r="B217" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>45508</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="E218" s="6" t="s">
-        <v>400</v>
+      <c r="B218" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>45509</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E219" s="6" t="s">
-        <v>401</v>
+      <c r="B219" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>45510</v>
       </c>
-      <c r="C220" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E220" s="6" t="s">
-        <v>402</v>
+      <c r="B220" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>45511</v>
       </c>
-      <c r="C221" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>403</v>
+      <c r="B221" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>45512</v>
       </c>
-      <c r="C222" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E222" s="6" t="s">
-        <v>404</v>
+      <c r="B222" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>45513</v>
       </c>
-      <c r="C223" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>405</v>
+      <c r="B223" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>45514</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>406</v>
+      <c r="B224" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>45515</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="B225" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E225" s="6" t="s">
-        <v>407</v>
+      <c r="E225" s="5" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>45516</v>
       </c>
-      <c r="C226" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="E226" s="6" t="s">
-        <v>408</v>
+      <c r="B226" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>45517</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E227" s="6" t="s">
-        <v>409</v>
+      <c r="B227" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>45518</v>
       </c>
-      <c r="C228" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="E228" s="6" t="s">
-        <v>410</v>
+      <c r="B228" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>45519</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E229" s="6" t="s">
-        <v>411</v>
+      <c r="B229" t="s">
+        <v>572</v>
+      </c>
+      <c r="C229" s="3">
+        <v>1</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>45520</v>
       </c>
-      <c r="C230" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E230" s="6" t="s">
-        <v>412</v>
+      <c r="B230" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>45521</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E231" s="6" t="s">
-        <v>413</v>
+      <c r="B231" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>45522</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="B232" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E232" s="6" t="s">
-        <v>414</v>
+      <c r="E232" s="5" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>45523</v>
       </c>
-      <c r="C233" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E233" s="6" t="s">
-        <v>415</v>
+      <c r="B233" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>45524</v>
       </c>
-      <c r="C234" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E234" s="6" t="s">
-        <v>416</v>
+      <c r="B234" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>45525</v>
       </c>
-      <c r="C235" s="5" t="s">
+      <c r="B235" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C235" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E235" s="6" t="s">
-        <v>417</v>
+      <c r="E235" s="5" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>45526</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="B236" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="C236" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E236" s="6" t="s">
-        <v>418</v>
+      <c r="E236" s="5" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>45527</v>
       </c>
-      <c r="C237" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>419</v>
+      <c r="B237" t="s">
+        <v>574</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>45528</v>
       </c>
-      <c r="C238" s="5" t="s">
+      <c r="B238" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C238" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E238" s="6" t="s">
-        <v>420</v>
+      <c r="E238" s="5" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>45529</v>
       </c>
-      <c r="C239" s="5" t="s">
+      <c r="B239" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C239" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E239" s="6" t="s">
-        <v>421</v>
+      <c r="E239" s="5" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>45530</v>
       </c>
-      <c r="C240" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E240" s="6" t="s">
-        <v>422</v>
+      <c r="B240" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>45531</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="E241" s="6" t="s">
-        <v>423</v>
+      <c r="B241" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>45532</v>
       </c>
-      <c r="C242" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E242" s="6" t="s">
-        <v>424</v>
+      <c r="B242" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>45533</v>
       </c>
-      <c r="C243" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E243" s="6" t="s">
-        <v>425</v>
+      <c r="B243" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>45534</v>
       </c>
-      <c r="C244" s="5" t="s">
+      <c r="B244" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E244" s="6" t="s">
-        <v>426</v>
+      <c r="E244" s="5" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>45535</v>
       </c>
-      <c r="C245" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>427</v>
+      <c r="B245" t="s">
+        <v>576</v>
+      </c>
+      <c r="C245" s="3">
+        <v>1</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>45536</v>
       </c>
-      <c r="C246" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="E246" s="7" t="s">
-        <v>429</v>
+      <c r="B246" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>45537</v>
       </c>
-      <c r="C247" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="E247" s="7" t="s">
-        <v>431</v>
+      <c r="B247" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>45538</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="B248" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C248" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E248" s="7" t="s">
-        <v>432</v>
+      <c r="E248" s="6" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>45539</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="B249" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C249" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E249" s="7" t="s">
-        <v>433</v>
+      <c r="E249" s="6" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>45540</v>
       </c>
-      <c r="C250" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="E250" s="7" t="s">
-        <v>435</v>
+      <c r="B250" t="s">
+        <v>578</v>
+      </c>
+      <c r="C250" s="3">
+        <v>1</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>45541</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="B251" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E251" s="7" t="s">
-        <v>436</v>
+      <c r="E251" s="6" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>45542</v>
       </c>
-      <c r="C252" s="7" t="s">
+      <c r="B252" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C252" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E252" s="7" t="s">
-        <v>437</v>
+      <c r="E252" s="6" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>45543</v>
       </c>
-      <c r="C253" s="7" t="s">
+      <c r="B253" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C253" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E253" s="7" t="s">
+      <c r="E253" s="6" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6111,21 +6340,27 @@
       <c r="A254" s="4">
         <v>45544</v>
       </c>
-      <c r="C254" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="E254" s="7" t="s">
-        <v>439</v>
+      <c r="B254" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C254" s="3">
+        <v>1</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>45545</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="B255" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E255" s="7" t="s">
+      <c r="E255" s="6" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6133,10 +6368,13 @@
       <c r="A256" s="4">
         <v>45546</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="B256" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C256" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E256" s="7" t="s">
+      <c r="E256" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6144,10 +6382,13 @@
       <c r="A257" s="4">
         <v>45547</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="B257" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C257" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E257" s="7" t="s">
+      <c r="E257" s="6" t="s">
         <v>251</v>
       </c>
     </row>
@@ -6155,10 +6396,13 @@
       <c r="A258" s="4">
         <v>45548</v>
       </c>
-      <c r="C258" s="7" t="s">
+      <c r="B258" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E258" s="7" t="s">
+      <c r="E258" s="6" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6166,10 +6410,13 @@
       <c r="A259" s="4">
         <v>45549</v>
       </c>
-      <c r="C259" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="E259" s="7" t="s">
+      <c r="B259" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C259" s="3">
+        <v>1</v>
+      </c>
+      <c r="E259" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6177,10 +6424,13 @@
       <c r="A260" s="4">
         <v>45550</v>
       </c>
-      <c r="C260" s="7" t="s">
+      <c r="B260" t="s">
+        <v>580</v>
+      </c>
+      <c r="C260" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E260" s="7" t="s">
+      <c r="E260" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6188,10 +6438,13 @@
       <c r="A261" s="4">
         <v>45551</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="B261" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C261" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E261" s="7" t="s">
+      <c r="E261" s="6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -6199,21 +6452,27 @@
       <c r="A262" s="4">
         <v>45552</v>
       </c>
-      <c r="C262" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="E262" s="7" t="s">
-        <v>442</v>
+      <c r="B262" t="s">
+        <v>581</v>
+      </c>
+      <c r="C262" s="3">
+        <v>1</v>
+      </c>
+      <c r="E262" s="6" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>45553</v>
       </c>
-      <c r="C263" s="7" t="s">
+      <c r="B263" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E263" s="7" t="s">
+      <c r="E263" s="6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6221,21 +6480,27 @@
       <c r="A264" s="4">
         <v>45554</v>
       </c>
-      <c r="C264" s="7" t="s">
+      <c r="B264" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E264" s="7" t="s">
-        <v>443</v>
+      <c r="E264" s="6" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>45555</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="B265" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E265" s="7" t="s">
+      <c r="E265" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6243,10 +6508,13 @@
       <c r="A266" s="4">
         <v>45556</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="B266" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E266" s="7" t="s">
+      <c r="E266" s="6" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6254,10 +6522,13 @@
       <c r="A267" s="4">
         <v>45557</v>
       </c>
-      <c r="C267" s="7" t="s">
+      <c r="B267" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E267" s="7" t="s">
+      <c r="E267" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6265,32 +6536,41 @@
       <c r="A268" s="4">
         <v>45558</v>
       </c>
-      <c r="C268" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E268" s="7" t="s">
-        <v>445</v>
+      <c r="B268" t="s">
+        <v>582</v>
+      </c>
+      <c r="C268" s="3">
+        <v>1</v>
+      </c>
+      <c r="E268" s="6" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>45559</v>
       </c>
-      <c r="C269" s="7" t="s">
+      <c r="B269" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E269" s="7" t="s">
-        <v>446</v>
+      <c r="E269" s="6" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>45560</v>
       </c>
-      <c r="C270" s="7" t="s">
+      <c r="B270" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E270" s="7" t="s">
+      <c r="E270" s="6" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6298,21 +6578,27 @@
       <c r="A271" s="4">
         <v>45561</v>
       </c>
-      <c r="C271" s="7" t="s">
+      <c r="B271" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E271" s="7" t="s">
-        <v>447</v>
+      <c r="E271" s="6" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>45562</v>
       </c>
-      <c r="C272" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="E272" s="7" t="s">
+      <c r="B272" t="s">
+        <v>583</v>
+      </c>
+      <c r="C272" s="3">
+        <v>1</v>
+      </c>
+      <c r="E272" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6320,49 +6606,67 @@
       <c r="A273" s="4">
         <v>45563</v>
       </c>
-      <c r="C273" s="7" t="s">
+      <c r="B273" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E273" s="7" t="s">
-        <v>449</v>
+      <c r="E273" s="6" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>45564</v>
       </c>
-      <c r="C274" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="E274" s="7" t="s">
-        <v>451</v>
+      <c r="B274" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C274" s="11">
+        <v>3</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>45565</v>
       </c>
+      <c r="B275" t="s">
+        <v>584</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>585</v>
+      </c>
       <c r="E275" s="2"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>45566</v>
       </c>
-      <c r="C276" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="E276" s="11" t="s">
-        <v>562</v>
+      <c r="B276" t="s">
+        <v>586</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E276" s="10" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>45567</v>
       </c>
-      <c r="C277" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="E277" s="11" t="s">
+      <c r="B277" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E277" s="10" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6370,10 +6674,13 @@
       <c r="A278" s="4">
         <v>45568</v>
       </c>
-      <c r="C278" s="11" t="s">
+      <c r="B278" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E278" s="11" t="s">
+      <c r="E278" s="10" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6381,32 +6688,41 @@
       <c r="A279" s="4">
         <v>45569</v>
       </c>
-      <c r="C279" s="11" t="s">
+      <c r="B279" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E279" s="11" t="s">
-        <v>478</v>
+      <c r="E279" s="10" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>45570</v>
       </c>
-      <c r="C280" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="E280" s="11" t="s">
-        <v>480</v>
+      <c r="B280" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E280" s="10" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>45571</v>
       </c>
-      <c r="C281" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="E281" s="11" t="s">
+      <c r="B281" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E281" s="10" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6414,10 +6730,13 @@
       <c r="A282" s="4">
         <v>45572</v>
       </c>
-      <c r="C282" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="E282" s="11" t="s">
+      <c r="B282" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E282" s="10" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6425,10 +6744,13 @@
       <c r="A283" s="4">
         <v>45573</v>
       </c>
-      <c r="C283" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="E283" s="11" t="s">
+      <c r="B283" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E283" s="10" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6436,21 +6758,27 @@
       <c r="A284" s="4">
         <v>45574</v>
       </c>
-      <c r="C284" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="E284" s="11" t="s">
-        <v>536</v>
+      <c r="B284" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E284" s="10" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>45575</v>
       </c>
-      <c r="C285" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="E285" s="11" t="s">
+      <c r="B285" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E285" s="10" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6458,164 +6786,209 @@
       <c r="A286" s="4">
         <v>45576</v>
       </c>
-      <c r="C286" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="E286" s="11" t="s">
-        <v>571</v>
+      <c r="B286" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E286" s="10" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>45577</v>
       </c>
-      <c r="C287" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E287" s="11" t="s">
-        <v>572</v>
+      <c r="B287" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E287" s="10" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>45578</v>
       </c>
-      <c r="C288" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="E288" s="11" t="s">
-        <v>467</v>
+      <c r="B288" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>45579</v>
       </c>
-      <c r="C289" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="E289" s="11" t="s">
-        <v>575</v>
+      <c r="B289" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E289" s="10" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>45580</v>
       </c>
-      <c r="C290" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="E290" s="11" t="s">
-        <v>577</v>
+      <c r="B290" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>45581</v>
       </c>
-      <c r="C291" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="E291" s="11" t="s">
-        <v>579</v>
+      <c r="B291" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E291" s="10" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>45582</v>
       </c>
-      <c r="C292" s="11" t="s">
+      <c r="B292" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E292" s="11" t="s">
-        <v>580</v>
+      <c r="E292" s="10" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>45583</v>
       </c>
-      <c r="C293" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="E293" s="11" t="s">
-        <v>582</v>
+      <c r="B293" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E293" s="10" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>45584</v>
       </c>
-      <c r="C294" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="E294" s="11" t="s">
-        <v>584</v>
+      <c r="B294" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E294" s="10" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>45585</v>
       </c>
-      <c r="C295" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="E295" s="11" t="s">
+      <c r="B295" s="10" t="s">
         <v>586</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E295" s="10" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>45586</v>
       </c>
-      <c r="C296" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="E296" s="11" t="s">
-        <v>588</v>
+      <c r="B296" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E296" s="10" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>45587</v>
       </c>
-      <c r="C297" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="E297" s="11" t="s">
-        <v>590</v>
+      <c r="B297" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E297" s="10" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>45588</v>
       </c>
-      <c r="C298" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="E298" s="11" t="s">
-        <v>592</v>
+      <c r="B298" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E298" s="10" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>45589</v>
       </c>
-      <c r="C299" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="E299" s="11" t="s">
-        <v>546</v>
+      <c r="B299" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E299" s="10" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>45590</v>
       </c>
-      <c r="C300" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="E300" s="11" t="s">
+      <c r="B300" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E300" s="10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6623,10 +6996,13 @@
       <c r="A301" s="4">
         <v>45591</v>
       </c>
-      <c r="C301" s="11" t="s">
+      <c r="B301" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E301" s="11" t="s">
+      <c r="E301" s="10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6634,54 +7010,69 @@
       <c r="A302" s="4">
         <v>45592</v>
       </c>
-      <c r="C302" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="E302" s="11" t="s">
-        <v>516</v>
+      <c r="B302" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>45593</v>
       </c>
-      <c r="C303" s="11" t="s">
+      <c r="B303" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E303" s="11" t="s">
-        <v>595</v>
+      <c r="E303" s="10" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>45594</v>
       </c>
-      <c r="C304" s="11" t="s">
+      <c r="B304" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E304" s="11" t="s">
-        <v>553</v>
+      <c r="E304" s="10" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>45595</v>
       </c>
-      <c r="C305" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="E305" s="11" t="s">
-        <v>597</v>
+      <c r="B305" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E305" s="10" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>45596</v>
       </c>
-      <c r="C306" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="E306" s="11" t="s">
+      <c r="B306" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E306" s="10" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6689,54 +7080,69 @@
       <c r="A307" s="4">
         <v>45597</v>
       </c>
-      <c r="C307" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="E307" s="10" t="s">
-        <v>532</v>
+      <c r="B307" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>45598</v>
       </c>
-      <c r="C308" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="E308" s="10" t="s">
-        <v>534</v>
+      <c r="B308" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E308" s="9" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>45599</v>
       </c>
-      <c r="C309" s="10" t="s">
+      <c r="B309" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E309" s="10" t="s">
-        <v>535</v>
+      <c r="E309" s="9" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>45600</v>
       </c>
-      <c r="C310" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="E310" s="10" t="s">
-        <v>536</v>
+      <c r="B310" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E310" s="9" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>45601</v>
       </c>
-      <c r="C311" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="E311" s="10" t="s">
+      <c r="B311" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E311" s="9" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6744,120 +7150,153 @@
       <c r="A312" s="4">
         <v>45602</v>
       </c>
-      <c r="C312" s="10" t="s">
+      <c r="B312" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E312" s="10" t="s">
-        <v>538</v>
+      <c r="E312" s="9" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>45603</v>
       </c>
-      <c r="C313" s="10" t="s">
+      <c r="B313" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E313" s="10" t="s">
-        <v>539</v>
+      <c r="E313" s="9" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>45604</v>
       </c>
-      <c r="C314" s="10" t="s">
+      <c r="B314" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E314" s="10" t="s">
-        <v>540</v>
+      <c r="E314" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>45605</v>
       </c>
-      <c r="C315" s="10" t="s">
+      <c r="B315" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E315" s="10" t="s">
-        <v>541</v>
+      <c r="E315" s="9" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>45606</v>
       </c>
-      <c r="C316" s="10" t="s">
+      <c r="B316" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E316" s="10" t="s">
-        <v>542</v>
+      <c r="E316" s="9" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>45607</v>
       </c>
-      <c r="C317" s="10" t="s">
+      <c r="B317" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E317" s="10" t="s">
-        <v>543</v>
+      <c r="E317" s="9" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>45608</v>
       </c>
-      <c r="C318" s="10" t="s">
+      <c r="B318" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E318" s="10" t="s">
-        <v>544</v>
+      <c r="E318" s="9" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>45609</v>
       </c>
-      <c r="C319" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E319" s="10" t="s">
-        <v>545</v>
+      <c r="B319" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C319" s="3">
+        <v>9</v>
+      </c>
+      <c r="E319" s="9" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>45610</v>
       </c>
-      <c r="C320" s="10" t="s">
+      <c r="B320" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E320" s="10" t="s">
-        <v>546</v>
+      <c r="E320" s="9" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>45611</v>
       </c>
-      <c r="C321" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E321" s="10" t="s">
-        <v>547</v>
+      <c r="B321" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E321" s="9" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>45612</v>
       </c>
-      <c r="C322" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="E322" s="10" t="s">
+      <c r="B322" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E322" s="9" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6865,10 +7304,13 @@
       <c r="A323" s="4">
         <v>45613</v>
       </c>
-      <c r="C323" s="10" t="s">
+      <c r="B323" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E323" s="10" t="s">
+      <c r="E323" s="9" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6876,10 +7318,13 @@
       <c r="A324" s="4">
         <v>45614</v>
       </c>
-      <c r="C324" s="10" t="s">
+      <c r="B324" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E324" s="10" t="s">
+      <c r="E324" s="9" t="s">
         <v>278</v>
       </c>
     </row>
@@ -6887,10 +7332,13 @@
       <c r="A325" s="4">
         <v>45615</v>
       </c>
-      <c r="C325" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="E325" s="10" t="s">
+      <c r="B325" t="s">
+        <v>596</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E325" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6898,54 +7346,69 @@
       <c r="A326" s="4">
         <v>45616</v>
       </c>
-      <c r="C326" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="E326" s="10" t="s">
-        <v>551</v>
+      <c r="B326" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E326" s="9" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>45617</v>
       </c>
-      <c r="C327" s="10" t="s">
+      <c r="B327" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E327" s="10" t="s">
-        <v>552</v>
+      <c r="E327" s="9" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>45618</v>
       </c>
-      <c r="C328" s="10" t="s">
+      <c r="B328" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E328" s="10" t="s">
-        <v>553</v>
+      <c r="E328" s="9" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>45619</v>
       </c>
-      <c r="C329" s="10" t="s">
+      <c r="B329" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E329" s="10" t="s">
-        <v>554</v>
+      <c r="E329" s="9" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>45620</v>
       </c>
-      <c r="C330" s="10" t="s">
+      <c r="B330" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E330" s="10" t="s">
+      <c r="E330" s="9" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6953,131 +7416,167 @@
       <c r="A331" s="4">
         <v>45621</v>
       </c>
-      <c r="C331" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="E331" s="10" t="s">
-        <v>556</v>
+      <c r="B331" t="s">
+        <v>598</v>
+      </c>
+      <c r="C331" s="3">
+        <v>1</v>
+      </c>
+      <c r="E331" s="9" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>45622</v>
       </c>
-      <c r="C332" s="10" t="s">
+      <c r="B332" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E332" s="10" t="s">
-        <v>557</v>
+      <c r="E332" s="9" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>45623</v>
       </c>
-      <c r="C333" s="10" t="s">
+      <c r="B333" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E333" s="10" t="s">
-        <v>558</v>
+      <c r="E333" s="9" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>45624</v>
       </c>
-      <c r="C334" s="10" t="s">
+      <c r="B334" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E334" s="10" t="s">
-        <v>487</v>
+      <c r="E334" s="9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>45625</v>
       </c>
-      <c r="C335" s="10" t="s">
+      <c r="B335" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E335" s="10" t="s">
-        <v>559</v>
+      <c r="E335" s="9" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>45626</v>
       </c>
-      <c r="C336" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="E336" s="10" t="s">
-        <v>491</v>
+      <c r="B336" t="s">
+        <v>601</v>
+      </c>
+      <c r="C336" s="3">
+        <v>1</v>
+      </c>
+      <c r="E336" s="9" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>45627</v>
       </c>
-      <c r="C337" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="E337" s="9" t="s">
-        <v>504</v>
+      <c r="B337" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C337" s="3">
+        <v>2</v>
+      </c>
+      <c r="E337" s="8" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>45628</v>
       </c>
-      <c r="C338" s="9" t="s">
+      <c r="B338" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E338" s="9" t="s">
-        <v>505</v>
+      <c r="E338" s="8" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>45629</v>
       </c>
-      <c r="C339" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="E339" s="9" t="s">
-        <v>507</v>
+      <c r="B339" t="s">
+        <v>599</v>
+      </c>
+      <c r="C339" s="3">
+        <v>1</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>45630</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="B340" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C340" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E340" s="9" t="s">
-        <v>508</v>
+      <c r="E340" s="8" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>45631</v>
       </c>
-      <c r="C341" s="9" t="s">
+      <c r="B341" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C341" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E341" s="9" t="s">
-        <v>509</v>
+      <c r="E341" s="8" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>45632</v>
       </c>
-      <c r="C342" s="9" t="s">
+      <c r="B342" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E342" s="9" t="s">
+      <c r="E342" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7085,10 +7584,13 @@
       <c r="A343" s="4">
         <v>45633</v>
       </c>
-      <c r="C343" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E343" s="9" t="s">
+      <c r="B343" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C343" s="3">
+        <v>5</v>
+      </c>
+      <c r="E343" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7096,10 +7598,13 @@
       <c r="A344" s="4">
         <v>45634</v>
       </c>
-      <c r="C344" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="E344" s="9" t="s">
+      <c r="B344" t="s">
+        <v>600</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E344" s="8" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7107,10 +7612,13 @@
       <c r="A345" s="4">
         <v>45635</v>
       </c>
-      <c r="C345" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="E345" s="9" t="s">
+      <c r="B345" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E345" s="8" t="s">
         <v>179</v>
       </c>
     </row>
@@ -7118,32 +7626,41 @@
       <c r="A346" s="4">
         <v>45636</v>
       </c>
-      <c r="C346" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="E346" s="9" t="s">
-        <v>513</v>
+      <c r="B346" t="s">
+        <v>602</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E346" s="8" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>45637</v>
       </c>
-      <c r="C347" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="E347" s="9" t="s">
-        <v>515</v>
+      <c r="B347" t="s">
+        <v>603</v>
+      </c>
+      <c r="C347" s="3">
+        <v>1</v>
+      </c>
+      <c r="E347" s="8" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>45638</v>
       </c>
-      <c r="C348" s="9" t="s">
+      <c r="B348" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C348" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E348" s="9" t="s">
+      <c r="E348" s="8" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7151,43 +7668,55 @@
       <c r="A349" s="4">
         <v>45639</v>
       </c>
-      <c r="C349" s="9" t="s">
+      <c r="B349" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E349" s="9" t="s">
-        <v>516</v>
+      <c r="E349" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>45640</v>
       </c>
-      <c r="C350" s="9" t="s">
+      <c r="B350" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E350" s="9" t="s">
-        <v>517</v>
+      <c r="E350" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <v>45641</v>
       </c>
-      <c r="C351" s="9" t="s">
+      <c r="B351" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C351" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E351" s="9" t="s">
-        <v>518</v>
+      <c r="E351" s="8" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>45642</v>
       </c>
-      <c r="C352" s="9" t="s">
+      <c r="B352" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E352" s="9" t="s">
+      <c r="E352" s="8" t="s">
         <v>245</v>
       </c>
     </row>
@@ -7195,10 +7724,13 @@
       <c r="A353" s="4">
         <v>45643</v>
       </c>
-      <c r="C353" s="9" t="s">
+      <c r="B353" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E353" s="9" t="s">
+      <c r="E353" s="8" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7206,142 +7738,181 @@
       <c r="A354" s="4">
         <v>45644</v>
       </c>
-      <c r="C354" s="9" t="s">
+      <c r="B354" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C354" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E354" s="9" t="s">
-        <v>519</v>
+      <c r="E354" s="8" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <v>45645</v>
       </c>
-      <c r="C355" s="9" t="s">
+      <c r="B355" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E355" s="9" t="s">
-        <v>520</v>
+      <c r="E355" s="8" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>45646</v>
       </c>
-      <c r="C356" s="9" t="s">
+      <c r="B356" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E356" s="9" t="s">
-        <v>521</v>
+      <c r="E356" s="8" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <v>45647</v>
       </c>
-      <c r="C357" s="9" t="s">
+      <c r="B357" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E357" s="9" t="s">
-        <v>446</v>
+      <c r="E357" s="8" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>45648</v>
       </c>
-      <c r="C358" s="9" t="s">
+      <c r="B358" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C358" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E358" s="9" t="s">
-        <v>439</v>
+      <c r="E358" s="8" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <v>45649</v>
       </c>
-      <c r="C359" s="9" t="s">
+      <c r="B359" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C359" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E359" s="9" t="s">
-        <v>522</v>
+      <c r="E359" s="8" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>45650</v>
       </c>
-      <c r="C360" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E360" s="9" t="s">
-        <v>523</v>
+      <c r="B360" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E360" s="8" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <v>45651</v>
       </c>
-      <c r="C361" s="9" t="s">
+      <c r="B361" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E361" s="9" t="s">
-        <v>524</v>
+      <c r="E361" s="8" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>45652</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="B362" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C362" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E362" s="9" t="s">
-        <v>525</v>
+      <c r="E362" s="8" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>45653</v>
       </c>
-      <c r="C363" s="9" t="s">
+      <c r="B363" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E363" s="9" t="s">
-        <v>526</v>
+      <c r="E363" s="8" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>45654</v>
       </c>
-      <c r="C364" s="9" t="s">
+      <c r="B364" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E364" s="9" t="s">
-        <v>527</v>
+      <c r="E364" s="8" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>45655</v>
       </c>
-      <c r="C365" s="9" t="s">
+      <c r="B365" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E365" s="9" t="s">
-        <v>528</v>
+      <c r="E365" s="8" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>45656</v>
       </c>
-      <c r="C366" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="E366" s="9" t="s">
+      <c r="B366" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E366" s="8" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7349,11 +7920,14 @@
       <c r="A367" s="4">
         <v>45657</v>
       </c>
-      <c r="C367" s="9" t="s">
+      <c r="B367" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="C367" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E367" s="9" t="s">
-        <v>530</v>
+      <c r="E367" s="8" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">

--- a/assets/qt_schedule.xlsx
+++ b/assets/qt_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayer\android_apps\daily_qt_hl\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B972D5-9534-4403-8AF4-FF797573DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71A594C-173A-4D3F-B993-2C4806AD5D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03EA6E69-C154-4164-AD29-32C70FF0EC51}"/>
   </bookViews>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="434">
   <si>
     <t>Matthew</t>
   </si>
@@ -495,15 +498,9 @@
     <t>17, 18, 19</t>
   </si>
   <si>
-    <t>23, 25</t>
-  </si>
-  <si>
     <t>28, 29, 30</t>
   </si>
   <si>
-    <t>34, 35, 39</t>
-  </si>
-  <si>
     <t>5, 6, 7</t>
   </si>
   <si>
@@ -546,9 +543,6 @@
     <t>6, 7, 8</t>
   </si>
   <si>
-    <t xml:space="preserve">19, 20, </t>
-  </si>
-  <si>
     <t>8, 9</t>
   </si>
   <si>
@@ -600,9 +594,6 @@
     <t>46, 47, 48</t>
   </si>
   <si>
-    <t>51, 5253</t>
-  </si>
-  <si>
     <t>54, 55, 56</t>
   </si>
   <si>
@@ -627,9 +618,6 @@
     <t>72, 73</t>
   </si>
   <si>
-    <t>74, 76, 76</t>
-  </si>
-  <si>
     <t>77, 78</t>
   </si>
   <si>
@@ -693,9 +681,6 @@
     <t>24, 25, 26</t>
   </si>
   <si>
-    <t>27, 26, 29</t>
-  </si>
-  <si>
     <t>37, 36, 39</t>
   </si>
   <si>
@@ -915,9 +900,6 @@
     <t>9: 23 - 43</t>
   </si>
   <si>
-    <t>9: 1 - 23</t>
-  </si>
-  <si>
     <t>10: 24 - 48</t>
   </si>
   <si>
@@ -1336,6 +1318,27 @@
   </si>
   <si>
     <t>1: 12 - 27</t>
+  </si>
+  <si>
+    <t>51, 52, 53</t>
+  </si>
+  <si>
+    <t>20, 22, 23</t>
+  </si>
+  <si>
+    <t>All 4 chapters</t>
+  </si>
+  <si>
+    <t>20: 27 - 47</t>
+  </si>
+  <si>
+    <t>74, 75, 76</t>
+  </si>
+  <si>
+    <t>23: 1 - 25</t>
+  </si>
+  <si>
+    <t>3 John</t>
   </si>
 </sst>
 </file>
@@ -1710,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C5AE5-7EBE-4A4A-BD63-5A68899D1B94}">
   <dimension ref="A1:F368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A356" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G369" sqref="G369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1834,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -1854,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1874,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -1894,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -1934,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -1954,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -1974,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>253</v>
+        <v>358</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -1994,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -2014,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -2034,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -2074,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -2094,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -2114,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -2134,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -2194,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -2254,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -2274,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -2334,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -2354,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -2374,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -2394,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -2434,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -2454,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -2474,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -2494,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E39" t="s">
         <v>30</v>
@@ -2514,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
@@ -2534,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E41" t="s">
         <v>30</v>
@@ -2554,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
@@ -2574,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E43" t="s">
         <v>30</v>
@@ -2594,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E44" t="s">
         <v>30</v>
@@ -2614,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E45" t="s">
         <v>30</v>
@@ -2634,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
@@ -2654,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
@@ -2714,7 +2717,7 @@
         <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E50" t="s">
         <v>30</v>
@@ -2734,7 +2737,7 @@
         <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
         <v>30</v>
@@ -2774,7 +2777,7 @@
         <v>15</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
@@ -2794,7 +2797,7 @@
         <v>15</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
@@ -2814,7 +2817,7 @@
         <v>15</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
@@ -2834,7 +2837,7 @@
         <v>15</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
@@ -2874,7 +2877,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
@@ -2894,7 +2897,7 @@
         <v>15</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
@@ -2914,7 +2917,7 @@
         <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
@@ -2940,7 +2943,7 @@
         <v>38</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>135</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2954,13 +2957,13 @@
         <v>15</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2974,7 +2977,7 @@
         <v>15</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
@@ -2994,13 +2997,13 @@
         <v>15</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3014,7 +3017,7 @@
         <v>15</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>293</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
@@ -3034,13 +3037,13 @@
         <v>15</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3094,13 +3097,13 @@
         <v>15</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3114,7 +3117,7 @@
         <v>15</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>79</v>
@@ -3134,13 +3137,13 @@
         <v>15</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,7 +3163,7 @@
         <v>79</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3174,7 +3177,7 @@
         <v>15</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>79</v>
@@ -3194,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>79</v>
@@ -3214,13 +3217,13 @@
         <v>15</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3234,7 +3237,7 @@
         <v>15</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>79</v>
@@ -3254,13 +3257,13 @@
         <v>15</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3274,13 +3277,13 @@
         <v>15</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3294,13 +3297,13 @@
         <v>15</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3334,7 +3337,7 @@
         <v>15</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E81" t="s">
         <v>40</v>
@@ -3354,7 +3357,7 @@
         <v>15</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E82" t="s">
         <v>40</v>
@@ -3374,7 +3377,7 @@
         <v>15</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E83" t="s">
         <v>40</v>
@@ -3394,7 +3397,7 @@
         <v>15</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s">
         <v>40</v>
@@ -3414,7 +3417,7 @@
         <v>15</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E85" t="s">
         <v>40</v>
@@ -3434,13 +3437,13 @@
         <v>15</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="E86" t="s">
         <v>40</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3460,7 +3463,7 @@
         <v>40</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3540,7 +3543,7 @@
         <v>39</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3554,7 +3557,7 @@
         <v>15</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E92" t="s">
         <v>39</v>
@@ -3574,7 +3577,7 @@
         <v>15</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E93" t="s">
         <v>39</v>
@@ -3614,13 +3617,13 @@
         <v>34</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="E95" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3634,13 +3637,13 @@
         <v>34</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E96" t="s">
         <v>23</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>57</v>
+        <v>429</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3674,7 +3677,7 @@
         <v>34</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>86</v>
@@ -3694,7 +3697,7 @@
         <v>34</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>86</v>
@@ -3714,7 +3717,7 @@
         <v>34</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>86</v>
@@ -3734,13 +3737,13 @@
         <v>34</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3754,7 +3757,7 @@
         <v>34</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>86</v>
@@ -3774,7 +3777,7 @@
         <v>34</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>86</v>
@@ -3794,13 +3797,13 @@
         <v>34</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3814,13 +3817,13 @@
         <v>34</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3854,13 +3857,13 @@
         <v>34</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3874,13 +3877,13 @@
         <v>34</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3894,7 +3897,7 @@
         <v>34</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E109" t="s">
         <v>87</v>
@@ -3914,13 +3917,13 @@
         <v>34</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3934,13 +3937,13 @@
         <v>34</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3954,7 +3957,7 @@
         <v>34</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>87</v>
@@ -3974,7 +3977,7 @@
         <v>34</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>87</v>
@@ -4014,7 +4017,7 @@
         <v>34</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>87</v>
@@ -4034,13 +4037,13 @@
         <v>34</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -4054,7 +4057,7 @@
         <v>34</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>87</v>
@@ -4074,7 +4077,7 @@
         <v>34</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>87</v>
@@ -4094,7 +4097,7 @@
         <v>34</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E119" t="s">
         <v>88</v>
@@ -4114,13 +4117,13 @@
         <v>34</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4134,7 +4137,7 @@
         <v>34</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>88</v>
@@ -4154,13 +4157,13 @@
         <v>34</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4174,7 +4177,7 @@
         <v>34</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>88</v>
@@ -4194,7 +4197,7 @@
         <v>34</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>88</v>
@@ -4234,7 +4237,7 @@
         <v>35</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>88</v>
@@ -4254,7 +4257,7 @@
         <v>35</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>88</v>
@@ -4380,7 +4383,7 @@
         <v>89</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4394,7 +4397,7 @@
         <v>35</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>89</v>
@@ -4414,7 +4417,7 @@
         <v>35</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>89</v>
@@ -4440,7 +4443,7 @@
         <v>89</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4460,7 +4463,7 @@
         <v>89</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4474,13 +4477,13 @@
         <v>35</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4494,7 +4497,7 @@
         <v>35</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E139" t="s">
         <v>66</v>
@@ -4574,7 +4577,7 @@
         <v>35</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>66</v>
@@ -4594,7 +4597,7 @@
         <v>35</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>66</v>
@@ -4620,7 +4623,7 @@
         <v>66</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4634,13 +4637,13 @@
         <v>36</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4654,13 +4657,13 @@
         <v>36</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4680,7 +4683,7 @@
         <v>66</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4774,7 +4777,7 @@
         <v>36</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>67</v>
@@ -4794,13 +4797,13 @@
         <v>36</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4900,7 +4903,7 @@
         <v>67</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4920,7 +4923,7 @@
         <v>67</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4940,7 +4943,7 @@
         <v>67</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -4954,13 +4957,13 @@
         <v>36</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4974,13 +4977,13 @@
         <v>36</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>67</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -5020,7 +5023,7 @@
         <v>41</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -5040,7 +5043,7 @@
         <v>41</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -5060,7 +5063,7 @@
         <v>41</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -5200,7 +5203,7 @@
         <v>42</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5220,7 +5223,7 @@
         <v>42</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5240,7 +5243,7 @@
         <v>42</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5274,7 +5277,7 @@
         <v>43</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E178" t="s">
         <v>44</v>
@@ -5294,13 +5297,13 @@
         <v>43</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E179" t="s">
         <v>44</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5314,7 +5317,7 @@
         <v>43</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E180" t="s">
         <v>44</v>
@@ -5334,13 +5337,13 @@
         <v>43</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E181" t="s">
         <v>44</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5354,13 +5357,13 @@
         <v>43</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E182" t="s">
         <v>44</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -5394,13 +5397,13 @@
         <v>43</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E184" t="s">
         <v>44</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -5414,13 +5417,13 @@
         <v>43</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5434,13 +5437,13 @@
         <v>43</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5454,13 +5457,13 @@
         <v>43</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5474,13 +5477,13 @@
         <v>43</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -5494,13 +5497,13 @@
         <v>43</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -5514,7 +5517,7 @@
         <v>43</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>44</v>
@@ -5534,13 +5537,13 @@
         <v>43</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5554,13 +5557,13 @@
         <v>43</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -5574,13 +5577,13 @@
         <v>43</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -5594,7 +5597,7 @@
         <v>43</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E194" t="s">
         <v>68</v>
@@ -5614,7 +5617,7 @@
         <v>43</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>68</v>
@@ -5634,7 +5637,7 @@
         <v>43</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>68</v>
@@ -5654,7 +5657,7 @@
         <v>43</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>68</v>
@@ -5674,7 +5677,7 @@
         <v>43</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>68</v>
@@ -5694,7 +5697,7 @@
         <v>43</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>68</v>
@@ -5714,7 +5717,7 @@
         <v>43</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>68</v>
@@ -5734,7 +5737,7 @@
         <v>43</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>68</v>
@@ -5754,13 +5757,13 @@
         <v>43</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -5774,13 +5777,13 @@
         <v>43</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5794,7 +5797,7 @@
         <v>43</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>68</v>
@@ -5814,7 +5817,7 @@
         <v>43</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>68</v>
@@ -5834,13 +5837,13 @@
         <v>43</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -5854,13 +5857,13 @@
         <v>43</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -5874,13 +5877,13 @@
         <v>43</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -5894,13 +5897,13 @@
         <v>43</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -5914,13 +5917,13 @@
         <v>43</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -5940,7 +5943,7 @@
         <v>68</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -5974,13 +5977,13 @@
         <v>43</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>188</v>
+        <v>427</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -5994,13 +5997,13 @@
         <v>43</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -6014,13 +6017,13 @@
         <v>43</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -6034,13 +6037,13 @@
         <v>43</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -6054,13 +6057,13 @@
         <v>43</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -6074,13 +6077,13 @@
         <v>43</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -6094,13 +6097,13 @@
         <v>43</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -6113,14 +6116,14 @@
       <c r="C220" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D220" s="7">
-        <v>0.8526273148148148</v>
+      <c r="D220" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -6134,13 +6137,13 @@
         <v>43</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -6154,13 +6157,13 @@
         <v>43</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>197</v>
+        <v>431</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -6174,13 +6177,13 @@
         <v>43</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -6194,13 +6197,13 @@
         <v>43</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -6214,13 +6217,13 @@
         <v>43</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>349</v>
+        <v>432</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -6234,13 +6237,13 @@
         <v>43</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -6254,13 +6257,13 @@
         <v>43</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -6274,13 +6277,13 @@
         <v>43</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -6300,7 +6303,7 @@
         <v>68</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -6314,13 +6317,13 @@
         <v>51</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -6334,13 +6337,13 @@
         <v>51</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -6360,7 +6363,7 @@
         <v>68</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -6374,13 +6377,13 @@
         <v>51</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -6394,13 +6397,13 @@
         <v>51</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -6420,7 +6423,7 @@
         <v>68</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -6440,7 +6443,7 @@
         <v>68</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -6460,7 +6463,7 @@
         <v>68</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -6480,7 +6483,7 @@
         <v>68</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -6500,7 +6503,7 @@
         <v>68</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -6514,13 +6517,13 @@
         <v>52</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -6534,13 +6537,13 @@
         <v>52</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -6554,13 +6557,13 @@
         <v>52</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -6574,13 +6577,13 @@
         <v>52</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -6600,7 +6603,7 @@
         <v>68</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -6620,7 +6623,7 @@
         <v>68</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -6634,13 +6637,13 @@
         <v>53</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -6654,13 +6657,13 @@
         <v>53</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -6680,7 +6683,7 @@
         <v>68</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -6700,7 +6703,7 @@
         <v>68</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -6720,7 +6723,7 @@
         <v>68</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -6740,7 +6743,7 @@
         <v>68</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -6780,7 +6783,7 @@
         <v>72</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -6820,7 +6823,7 @@
         <v>72</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -6900,7 +6903,7 @@
         <v>72</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -6920,7 +6923,7 @@
         <v>72</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -6960,7 +6963,7 @@
         <v>72</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -6980,7 +6983,7 @@
         <v>72</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -7120,7 +7123,7 @@
         <v>90</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -7220,7 +7223,7 @@
         <v>74</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -7234,13 +7237,13 @@
         <v>58</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -7254,13 +7257,13 @@
         <v>58</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -7314,13 +7317,13 @@
         <v>58</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -7334,7 +7337,7 @@
         <v>58</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>74</v>
@@ -7354,13 +7357,13 @@
         <v>58</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -7374,13 +7377,13 @@
         <v>58</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -7394,13 +7397,13 @@
         <v>58</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -7414,13 +7417,13 @@
         <v>58</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -7434,13 +7437,13 @@
         <v>58</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -7454,7 +7457,7 @@
         <v>58</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>74</v>
@@ -7474,13 +7477,13 @@
         <v>58</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -7494,13 +7497,13 @@
         <v>58</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -7514,13 +7517,13 @@
         <v>58</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -7534,13 +7537,13 @@
         <v>58</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -7560,7 +7563,7 @@
         <v>74</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -7574,13 +7577,13 @@
         <v>58</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -7594,13 +7597,13 @@
         <v>58</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -7614,13 +7617,13 @@
         <v>58</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -7634,13 +7637,13 @@
         <v>58</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -7654,13 +7657,13 @@
         <v>58</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -7674,7 +7677,7 @@
         <v>58</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E298" t="s">
         <v>75</v>
@@ -7694,13 +7697,13 @@
         <v>58</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -7714,13 +7717,13 @@
         <v>58</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -7780,7 +7783,7 @@
         <v>75</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -7814,13 +7817,13 @@
         <v>58</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -7834,13 +7837,13 @@
         <v>58</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -7854,13 +7857,13 @@
         <v>58</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -7874,13 +7877,13 @@
         <v>58</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -7900,7 +7903,7 @@
         <v>75</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -7920,7 +7923,7 @@
         <v>75</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -7940,7 +7943,7 @@
         <v>75</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -7960,7 +7963,7 @@
         <v>75</v>
       </c>
       <c r="F312" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -7980,7 +7983,7 @@
         <v>75</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -8000,7 +8003,7 @@
         <v>75</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -8020,7 +8023,7 @@
         <v>75</v>
       </c>
       <c r="F315" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -8040,7 +8043,7 @@
         <v>75</v>
       </c>
       <c r="F316" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -8080,7 +8083,7 @@
         <v>75</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -8120,7 +8123,7 @@
         <v>83</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -8134,7 +8137,7 @@
         <v>59</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E321" t="s">
         <v>84</v>
@@ -8154,7 +8157,7 @@
         <v>59</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>84</v>
@@ -8180,7 +8183,7 @@
         <v>84</v>
       </c>
       <c r="F323" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -8214,13 +8217,13 @@
         <v>60</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -8234,7 +8237,7 @@
         <v>60</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>84</v>
@@ -8299,8 +8302,8 @@
       <c r="E329" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F329" s="5">
-        <v>2021</v>
+      <c r="F329" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -8320,7 +8323,7 @@
         <v>84</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -8340,7 +8343,7 @@
         <v>84</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -8360,7 +8363,7 @@
         <v>84</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -8380,7 +8383,7 @@
         <v>84</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -8400,7 +8403,7 @@
         <v>84</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -8420,7 +8423,7 @@
         <v>84</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -8440,7 +8443,7 @@
         <v>84</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -8460,7 +8463,7 @@
         <v>84</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -8580,7 +8583,7 @@
         <v>85</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -8611,7 +8614,7 @@
         <v>9</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>95</v>
+        <v>433</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>57</v>
@@ -8640,7 +8643,7 @@
         <v>91</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -8660,7 +8663,7 @@
         <v>91</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -8980,7 +8983,7 @@
         <v>94</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -9000,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -9020,7 +9023,7 @@
         <v>94</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -9040,7 +9043,7 @@
         <v>94</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
